--- a/GAP.xlsx
+++ b/GAP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6B5908-B079-4669-B66C-61842421AD20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5D2D3B-AA28-4268-9DC2-38D66446C590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{45B8ACDC-CB3B-40F4-A3D2-AA5D93D3C1D7}"/>
   </bookViews>
@@ -692,7 +692,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -722,12 +722,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1073,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C29C52-BB44-40A0-B598-95160E4D3AF4}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1100,7 +1094,7 @@
         <v>3</v>
       </c>
       <c r="J2">
-        <v>24.2</v>
+        <v>23.78</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1108,10 +1102,10 @@
         <v>4</v>
       </c>
       <c r="J3" s="2">
-        <v>374.90472299999999</v>
+        <v>375</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1126,7 +1120,7 @@
       </c>
       <c r="J4" s="23">
         <f>J3*J2</f>
-        <v>9072.6942965999988</v>
+        <v>8917.5</v>
       </c>
       <c r="K4" s="3"/>
     </row>
@@ -1138,11 +1132,11 @@
         <v>7</v>
       </c>
       <c r="J5" s="23">
-        <f>2335+253</f>
-        <v>2588</v>
+        <f>1976+244</f>
+        <v>2220</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1166,14 +1160,14 @@
         <v>1490</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="28">
         <v>0.22099960228026</v>
       </c>
       <c r="D7" s="12" t="s">
@@ -1188,14 +1182,14 @@
       </c>
       <c r="J7" s="23">
         <f>J4+J6-J5</f>
-        <v>7974.6942965999988</v>
+        <v>8187.5</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="29">
         <v>0.55687392284237003</v>
       </c>
       <c r="D8" t="s">
@@ -1210,7 +1204,7 @@
       <c r="B9" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="30">
         <v>0.13210924035529631</v>
       </c>
       <c r="D9" t="s">
@@ -1225,14 +1219,14 @@
       </c>
       <c r="J9" s="22">
         <f>+J4/844</f>
-        <v>10.749637792180094</v>
+        <v>10.565758293838863</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="30">
         <v>8.9685801405276419E-2</v>
       </c>
       <c r="D10" t="s">
@@ -1250,11 +1244,16 @@
       <c r="E11" s="17"/>
       <c r="F11" s="18"/>
     </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>1100</v>
+      </c>
+    </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="G13" s="35" t="s">
+      <c r="G13" s="31" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1281,7 +1280,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C16" s="31"/>
+      <c r="C16" s="27"/>
       <c r="G16" t="s">
         <v>142</v>
       </c>
@@ -1343,10 +1342,10 @@
   <dimension ref="A1:AH210"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U21" sqref="U21"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1458,7 +1457,9 @@
       <c r="J3" s="23">
         <v>2506</v>
       </c>
-      <c r="K3" s="23"/>
+      <c r="K3" s="23">
+        <v>2496</v>
+      </c>
       <c r="L3" s="23"/>
       <c r="M3" s="23"/>
       <c r="N3" s="23"/>
@@ -1522,7 +1523,9 @@
       <c r="J4" s="23">
         <v>1063</v>
       </c>
-      <c r="K4" s="23"/>
+      <c r="K4" s="23">
+        <v>1000</v>
+      </c>
       <c r="L4" s="23"/>
       <c r="M4" s="23"/>
       <c r="N4" s="23"/>
@@ -1596,7 +1599,7 @@
       </c>
       <c r="K5" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3496</v>
       </c>
       <c r="L5" s="24">
         <f t="shared" si="0"/>
@@ -1654,80 +1657,80 @@
         <v>125</v>
       </c>
       <c r="C6" s="9">
-        <f>+C13/C5</f>
+        <f t="shared" ref="C6:N6" si="8">+C13/C5</f>
         <v>0.59455545902114104</v>
       </c>
       <c r="D6" s="9">
-        <f>+D13/D5</f>
+        <f t="shared" si="8"/>
         <v>0.69068287037037035</v>
       </c>
       <c r="E6" s="9">
-        <f>+E13/E5</f>
+        <f t="shared" si="8"/>
         <v>0.65977922445513726</v>
       </c>
       <c r="F6" s="9">
-        <f>+F13/F5</f>
+        <f t="shared" si="8"/>
         <v>0.723314606741573</v>
       </c>
       <c r="G6" s="9">
-        <f>+G13/G5</f>
+        <f t="shared" si="8"/>
         <v>0.58975077009241106</v>
       </c>
       <c r="H6" s="9">
-        <f>+H13/H5</f>
+        <f t="shared" si="8"/>
         <v>0.69394618834080712</v>
       </c>
       <c r="I6" s="9">
-        <f>+I13/I5</f>
+        <f t="shared" si="8"/>
         <v>0.63530391340549541</v>
       </c>
       <c r="J6" s="9">
-        <f>+J13/J5</f>
+        <f t="shared" si="8"/>
         <v>0.6895488932474082</v>
       </c>
-      <c r="K6" s="9" t="e">
-        <f>+K13/K5</f>
+      <c r="K6" s="9">
+        <f t="shared" si="8"/>
+        <v>0.60424199084668184</v>
+      </c>
+      <c r="L6" s="9" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="9" t="e">
-        <f>+L13/L5</f>
+      <c r="M6" s="9" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M6" s="9" t="e">
-        <f>+M13/M5</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="N6" s="9" t="e">
-        <f>+N13/N5</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O6" s="9"/>
       <c r="P6" s="9">
-        <f>+P13/P5</f>
+        <f t="shared" ref="P6:V6" si="9">+P13/P5</f>
         <v>3.5081833060556464</v>
       </c>
       <c r="Q6" s="9">
-        <f>+Q13/Q5</f>
+        <f t="shared" si="9"/>
         <v>3.1370247512120439</v>
       </c>
       <c r="R6" s="9">
-        <f>+R13/R5</f>
+        <f t="shared" si="9"/>
         <v>2.2130038246543102</v>
       </c>
       <c r="S6" s="9">
-        <f>+S13/S5</f>
+        <f t="shared" si="9"/>
         <v>3.0545942720763724</v>
       </c>
       <c r="T6" s="9">
-        <f>+T13/T5</f>
+        <f t="shared" si="9"/>
         <v>2.8791766109785204</v>
       </c>
       <c r="U6" s="9">
-        <f>+U13/U5</f>
+        <f t="shared" si="9"/>
         <v>2.6252808988764045</v>
       </c>
       <c r="V6" s="9">
-        <f>+V13/V5</f>
+        <f t="shared" si="9"/>
         <v>2.6147380218548615</v>
       </c>
     </row>
@@ -1769,7 +1772,7 @@
         <v>2126</v>
       </c>
       <c r="F8" s="23">
-        <f t="shared" ref="F8:F12" si="8">+U8-SUM(C8:E8)</f>
+        <f t="shared" ref="F8:F12" si="10">+U8-SUM(C8:E8)</f>
         <v>2288</v>
       </c>
       <c r="G8" s="23">
@@ -1782,10 +1785,12 @@
         <v>2150</v>
       </c>
       <c r="J8" s="23">
-        <f t="shared" ref="J8:J12" si="9">+V8-SUM(G8:I8)</f>
+        <f t="shared" ref="J8:J12" si="11">+V8-SUM(G8:I8)</f>
         <v>2212</v>
       </c>
-      <c r="K8" s="23"/>
+      <c r="K8" s="23">
+        <v>1981</v>
+      </c>
       <c r="L8" s="23"/>
       <c r="M8" s="23"/>
       <c r="N8" s="23"/>
@@ -1827,7 +1832,7 @@
         <v>887</v>
       </c>
       <c r="F9" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1007</v>
       </c>
       <c r="G9" s="23">
@@ -1840,10 +1845,12 @@
         <v>899</v>
       </c>
       <c r="J9" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>980</v>
       </c>
-      <c r="K9" s="23"/>
+      <c r="K9" s="23">
+        <v>724</v>
+      </c>
       <c r="L9" s="23"/>
       <c r="M9" s="23"/>
       <c r="N9" s="23"/>
@@ -1885,7 +1892,7 @@
         <v>460</v>
       </c>
       <c r="F10" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>567</v>
       </c>
       <c r="G10" s="23">
@@ -1898,10 +1905,12 @@
         <v>469</v>
       </c>
       <c r="J10" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>605</v>
       </c>
-      <c r="K10" s="23"/>
+      <c r="K10" s="23">
+        <v>428</v>
+      </c>
       <c r="L10" s="23"/>
       <c r="M10" s="23"/>
       <c r="N10" s="23"/>
@@ -1943,7 +1952,7 @@
         <v>279</v>
       </c>
       <c r="F11" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>419</v>
       </c>
       <c r="G11" s="23">
@@ -1956,10 +1965,12 @@
         <v>290</v>
       </c>
       <c r="J11" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>396</v>
       </c>
-      <c r="K11" s="23"/>
+      <c r="K11" s="23">
+        <v>308</v>
+      </c>
       <c r="L11" s="23"/>
       <c r="M11" s="23"/>
       <c r="N11" s="23"/>
@@ -2001,7 +2012,7 @@
         <v>15</v>
       </c>
       <c r="F12" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>17</v>
       </c>
       <c r="G12" s="23">
@@ -2014,10 +2025,12 @@
         <v>21</v>
       </c>
       <c r="J12" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
-      <c r="K12" s="23"/>
+      <c r="K12" s="23">
+        <v>22</v>
+      </c>
       <c r="L12" s="23"/>
       <c r="M12" s="23"/>
       <c r="N12" s="23"/>
@@ -2074,7 +2087,10 @@
         <f>+V13-SUM(G13:I13)</f>
         <v>2461</v>
       </c>
-      <c r="K13" s="23"/>
+      <c r="K13" s="23">
+        <f>61%*K15</f>
+        <v>2112.4299999999998</v>
+      </c>
       <c r="L13" s="23"/>
       <c r="M13" s="23"/>
       <c r="N13" s="23"/>
@@ -2142,7 +2158,10 @@
         <f>+V14-SUM(G14:I14)</f>
         <v>1708</v>
       </c>
-      <c r="K14" s="23"/>
+      <c r="K14" s="23">
+        <f>39%*K15</f>
+        <v>1350.57</v>
+      </c>
       <c r="L14" s="23"/>
       <c r="M14" s="23"/>
       <c r="N14" s="23"/>
@@ -2212,7 +2231,9 @@
         <f>+V15-SUM(G15:I15)</f>
         <v>4149</v>
       </c>
-      <c r="K15" s="24"/>
+      <c r="K15" s="24">
+        <v>3463</v>
+      </c>
       <c r="L15" s="24"/>
       <c r="M15" s="24"/>
       <c r="N15" s="24"/>
@@ -2277,7 +2298,9 @@
         <f>+V16-SUM(G16:I16)</f>
         <v>2537</v>
       </c>
-      <c r="K16" s="23"/>
+      <c r="K16" s="23">
+        <v>2015</v>
+      </c>
       <c r="L16" s="23"/>
       <c r="M16" s="23"/>
       <c r="N16" s="23"/>
@@ -2313,81 +2336,84 @@
     </row>
     <row r="17" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="B17" s="25" t="s">
+      <c r="B17" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="23">
         <f>C15-C16</f>
         <v>1214</v>
       </c>
-      <c r="D17" s="26">
-        <f t="shared" ref="D17:J17" si="10">D15-D16</f>
+      <c r="D17" s="23">
+        <f t="shared" ref="D17:K17" si="12">D15-D16</f>
         <v>1333</v>
       </c>
-      <c r="E17" s="26">
-        <f t="shared" si="10"/>
+      <c r="E17" s="23">
+        <f t="shared" si="12"/>
         <v>1556</v>
       </c>
-      <c r="F17" s="26">
-        <f t="shared" si="10"/>
+      <c r="F17" s="23">
+        <f t="shared" si="12"/>
         <v>1672</v>
       </c>
-      <c r="G17" s="26">
-        <f t="shared" si="10"/>
+      <c r="G17" s="23">
+        <f t="shared" si="12"/>
         <v>1397</v>
       </c>
-      <c r="H17" s="26">
-        <f t="shared" si="10"/>
+      <c r="H17" s="23">
+        <f t="shared" si="12"/>
         <v>1583</v>
       </c>
-      <c r="I17" s="26">
-        <f t="shared" si="10"/>
+      <c r="I17" s="23">
+        <f t="shared" si="12"/>
         <v>1635</v>
       </c>
-      <c r="J17" s="26">
-        <f t="shared" si="10"/>
+      <c r="J17" s="23">
+        <f t="shared" si="12"/>
         <v>1612</v>
       </c>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26">
-        <f t="shared" ref="P17" si="11">P15-P16</f>
+      <c r="K17" s="23">
+        <f t="shared" si="12"/>
+        <v>1448</v>
+      </c>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23">
+        <f t="shared" ref="P17" si="13">P15-P16</f>
         <v>6322</v>
       </c>
-      <c r="Q17" s="26">
-        <f t="shared" ref="Q17" si="12">Q15-Q16</f>
+      <c r="Q17" s="23">
+        <f t="shared" ref="Q17" si="14">Q15-Q16</f>
         <v>6133</v>
       </c>
-      <c r="R17" s="26">
-        <f t="shared" ref="R17" si="13">R15-R16</f>
+      <c r="R17" s="23">
+        <f t="shared" ref="R17" si="15">R15-R16</f>
         <v>4705</v>
       </c>
-      <c r="S17" s="26">
-        <f t="shared" ref="S17" si="14">S15-S16</f>
+      <c r="S17" s="23">
+        <f t="shared" ref="S17" si="16">S15-S16</f>
         <v>6637</v>
       </c>
-      <c r="T17" s="26">
-        <f t="shared" ref="T17" si="15">T15-T16</f>
+      <c r="T17" s="23">
+        <f t="shared" ref="T17" si="17">T15-T16</f>
         <v>5359</v>
       </c>
-      <c r="U17" s="26">
-        <f t="shared" ref="U17:V17" si="16">U15-U16</f>
+      <c r="U17" s="23">
+        <f t="shared" ref="U17:V17" si="18">U15-U16</f>
         <v>5775</v>
       </c>
-      <c r="V17" s="26">
-        <f t="shared" si="16"/>
+      <c r="V17" s="23">
+        <f t="shared" si="18"/>
         <v>6227</v>
       </c>
-      <c r="W17" s="26"/>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="26"/>
-      <c r="AA17" s="26"/>
-      <c r="AB17" s="26"/>
-      <c r="AC17" s="26"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="23"/>
+      <c r="Z17" s="23"/>
+      <c r="AA17" s="23"/>
+      <c r="AB17" s="23"/>
+      <c r="AC17" s="23"/>
     </row>
     <row r="18" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
@@ -2420,7 +2446,9 @@
         <f>+V18-SUM(G18:I18)</f>
         <v>1353</v>
       </c>
-      <c r="K18" s="23"/>
+      <c r="K18" s="23">
+        <v>1188</v>
+      </c>
       <c r="L18" s="23"/>
       <c r="M18" s="23"/>
       <c r="N18" s="23"/>
@@ -2456,81 +2484,84 @@
     </row>
     <row r="19" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="26">
-        <f t="shared" ref="C19:F19" si="17">C17-C18</f>
+      <c r="C19" s="23">
+        <f t="shared" ref="C19:F19" si="19">C17-C18</f>
         <v>-10</v>
       </c>
-      <c r="D19" s="26">
-        <f t="shared" si="17"/>
+      <c r="D19" s="23">
+        <f t="shared" si="19"/>
         <v>106</v>
       </c>
-      <c r="E19" s="26">
-        <f t="shared" si="17"/>
+      <c r="E19" s="23">
+        <f t="shared" si="19"/>
         <v>250</v>
       </c>
-      <c r="F19" s="26">
-        <f t="shared" si="17"/>
+      <c r="F19" s="23">
+        <f t="shared" si="19"/>
         <v>214</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="23">
         <f>G17-G18</f>
         <v>205</v>
       </c>
-      <c r="H19" s="26">
-        <f t="shared" ref="H19:J19" si="18">H17-H18</f>
+      <c r="H19" s="23">
+        <f t="shared" ref="H19:K19" si="20">H17-H18</f>
         <v>293</v>
       </c>
-      <c r="I19" s="26">
-        <f t="shared" si="18"/>
+      <c r="I19" s="23">
+        <f t="shared" si="20"/>
         <v>355</v>
       </c>
-      <c r="J19" s="26">
-        <f t="shared" si="18"/>
+      <c r="J19" s="23">
+        <f t="shared" si="20"/>
         <v>259</v>
       </c>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26">
-        <f t="shared" ref="P19" si="19">P17-P18</f>
+      <c r="K19" s="23">
+        <f t="shared" si="20"/>
+        <v>260</v>
+      </c>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23">
+        <f t="shared" ref="P19" si="21">P17-P18</f>
         <v>1362</v>
       </c>
-      <c r="Q19" s="26">
-        <f t="shared" ref="Q19" si="20">Q17-Q18</f>
+      <c r="Q19" s="23">
+        <f t="shared" ref="Q19" si="22">Q17-Q18</f>
         <v>574</v>
       </c>
-      <c r="R19" s="26">
-        <f t="shared" ref="R19" si="21">R17-R18</f>
+      <c r="R19" s="23">
+        <f t="shared" ref="R19" si="23">R17-R18</f>
         <v>-862</v>
       </c>
-      <c r="S19" s="26">
-        <f t="shared" ref="S19" si="22">S17-S18</f>
+      <c r="S19" s="23">
+        <f t="shared" ref="S19" si="24">S17-S18</f>
         <v>810</v>
       </c>
-      <c r="T19" s="26">
-        <f t="shared" ref="T19" si="23">T17-T18</f>
+      <c r="T19" s="23">
+        <f t="shared" ref="T19" si="25">T17-T18</f>
         <v>-69</v>
       </c>
-      <c r="U19" s="26">
-        <f t="shared" ref="U19:V19" si="24">U17-U18</f>
+      <c r="U19" s="23">
+        <f t="shared" ref="U19:V19" si="26">U17-U18</f>
         <v>560</v>
       </c>
-      <c r="V19" s="26">
-        <f t="shared" si="24"/>
+      <c r="V19" s="23">
+        <f t="shared" si="26"/>
         <v>1112</v>
       </c>
-      <c r="W19" s="26"/>
-      <c r="X19" s="26"/>
-      <c r="Y19" s="26"/>
-      <c r="Z19" s="26"/>
-      <c r="AA19" s="26"/>
-      <c r="AB19" s="26"/>
-      <c r="AC19" s="26"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="23"/>
+      <c r="AB19" s="23"/>
+      <c r="AC19" s="23"/>
     </row>
     <row r="20" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
@@ -2563,7 +2594,9 @@
         <f>+V20-SUM(G20:I20)</f>
         <v>19</v>
       </c>
-      <c r="K20" s="23"/>
+      <c r="K20" s="23">
+        <v>0</v>
+      </c>
       <c r="L20" s="23"/>
       <c r="M20" s="23"/>
       <c r="N20" s="23"/>
@@ -2630,7 +2663,9 @@
         <f>+V21-SUM(G21:I21)</f>
         <v>32</v>
       </c>
-      <c r="K21" s="23"/>
+      <c r="K21" s="23">
+        <v>3</v>
+      </c>
       <c r="L21" s="23"/>
       <c r="M21" s="23"/>
       <c r="N21" s="23"/>
@@ -2674,15 +2709,15 @@
         <v>-20</v>
       </c>
       <c r="D22" s="23">
-        <f t="shared" ref="D22" si="25">D19-D20+D21</f>
+        <f t="shared" ref="D22" si="27">D19-D20+D21</f>
         <v>108</v>
       </c>
       <c r="E22" s="23">
-        <f t="shared" ref="E22" si="26">E19-E20+E21</f>
+        <f t="shared" ref="E22" si="28">E19-E20+E21</f>
         <v>250</v>
       </c>
       <c r="F22" s="23">
-        <f t="shared" ref="F22" si="27">F19-F20+F21</f>
+        <f t="shared" ref="F22" si="29">F19-F20+F21</f>
         <v>218</v>
       </c>
       <c r="G22" s="23">
@@ -2690,28 +2725,31 @@
         <v>208</v>
       </c>
       <c r="H22" s="23">
-        <f t="shared" ref="H22:J22" si="28">H19-H20+H21</f>
+        <f t="shared" ref="H22:K22" si="30">H19-H20+H21</f>
         <v>296</v>
       </c>
       <c r="I22" s="23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>361</v>
       </c>
       <c r="J22" s="23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>272</v>
       </c>
-      <c r="K22" s="23"/>
+      <c r="K22" s="23">
+        <f t="shared" si="30"/>
+        <v>263</v>
+      </c>
       <c r="L22" s="23"/>
       <c r="M22" s="23"/>
       <c r="N22" s="23"/>
       <c r="O22" s="23"/>
       <c r="P22" s="23">
-        <f t="shared" ref="P22" si="29">P19-P20+P21</f>
+        <f t="shared" ref="P22" si="31">P19-P20+P21</f>
         <v>1322</v>
       </c>
       <c r="Q22" s="23">
-        <f t="shared" ref="Q22" si="30">Q19-Q20+Q21</f>
+        <f t="shared" ref="Q22" si="32">Q19-Q20+Q21</f>
         <v>528</v>
       </c>
       <c r="R22" s="23">
@@ -2719,19 +2757,19 @@
         <v>-1102</v>
       </c>
       <c r="S22" s="23">
-        <f t="shared" ref="S22" si="31">S19-S20+S21</f>
+        <f t="shared" ref="S22" si="33">S19-S20+S21</f>
         <v>323</v>
       </c>
       <c r="T22" s="23">
-        <f t="shared" ref="T22" si="32">T19-T20+T21</f>
+        <f t="shared" ref="T22" si="34">T19-T20+T21</f>
         <v>-139</v>
       </c>
       <c r="U22" s="23">
-        <f t="shared" ref="U22:V22" si="33">U19-U20+U21</f>
+        <f t="shared" ref="U22:V22" si="35">U19-U20+U21</f>
         <v>556</v>
       </c>
       <c r="V22" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1137</v>
       </c>
       <c r="W22" s="23"/>
@@ -2773,7 +2811,9 @@
         <f>+V23-SUM(G23:I23)</f>
         <v>66</v>
       </c>
-      <c r="K23" s="23"/>
+      <c r="K23" s="23">
+        <v>70</v>
+      </c>
       <c r="L23" s="23"/>
       <c r="M23" s="23"/>
       <c r="N23" s="23"/>
@@ -2809,81 +2849,84 @@
     </row>
     <row r="24" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
-      <c r="B24" s="25" t="s">
+      <c r="B24" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="23">
         <f>C22-C23</f>
         <v>-18</v>
       </c>
-      <c r="D24" s="26">
-        <f t="shared" ref="D24:J24" si="34">D22-D23</f>
+      <c r="D24" s="23">
+        <f t="shared" ref="D24:K24" si="36">D22-D23</f>
         <v>117</v>
       </c>
-      <c r="E24" s="26">
-        <f t="shared" si="34"/>
+      <c r="E24" s="23">
+        <f t="shared" si="36"/>
         <v>218</v>
       </c>
-      <c r="F24" s="26">
-        <f t="shared" si="34"/>
+      <c r="F24" s="23">
+        <f t="shared" si="36"/>
         <v>185</v>
       </c>
-      <c r="G24" s="26">
-        <f t="shared" si="34"/>
+      <c r="G24" s="23">
+        <f t="shared" si="36"/>
         <v>158</v>
       </c>
-      <c r="H24" s="26">
-        <f t="shared" si="34"/>
+      <c r="H24" s="23">
+        <f t="shared" si="36"/>
         <v>206</v>
       </c>
-      <c r="I24" s="26">
-        <f t="shared" si="34"/>
+      <c r="I24" s="23">
+        <f t="shared" si="36"/>
         <v>274</v>
       </c>
-      <c r="J24" s="26">
-        <f t="shared" si="34"/>
+      <c r="J24" s="23">
+        <f t="shared" si="36"/>
         <v>206</v>
       </c>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26">
-        <f t="shared" ref="P24" si="35">P22-P23</f>
+      <c r="K24" s="23">
+        <f t="shared" si="36"/>
+        <v>193</v>
+      </c>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23">
+        <f t="shared" ref="P24" si="37">P22-P23</f>
         <v>1003</v>
       </c>
-      <c r="Q24" s="26">
-        <f t="shared" ref="Q24" si="36">Q22-Q23</f>
+      <c r="Q24" s="23">
+        <f t="shared" ref="Q24" si="38">Q22-Q23</f>
         <v>351</v>
       </c>
-      <c r="R24" s="26">
-        <f t="shared" ref="R24" si="37">R22-R23</f>
+      <c r="R24" s="23">
+        <f t="shared" ref="R24" si="39">R22-R23</f>
         <v>-665</v>
       </c>
-      <c r="S24" s="26">
-        <f t="shared" ref="S24" si="38">S22-S23</f>
+      <c r="S24" s="23">
+        <f t="shared" ref="S24" si="40">S22-S23</f>
         <v>256</v>
       </c>
-      <c r="T24" s="26">
-        <f t="shared" ref="T24" si="39">T22-T23</f>
+      <c r="T24" s="23">
+        <f t="shared" ref="T24" si="41">T22-T23</f>
         <v>-202</v>
       </c>
-      <c r="U24" s="26">
-        <f t="shared" ref="U24:V24" si="40">U22-U23</f>
+      <c r="U24" s="23">
+        <f t="shared" ref="U24:V24" si="42">U22-U23</f>
         <v>502</v>
       </c>
-      <c r="V24" s="26">
-        <f t="shared" si="40"/>
+      <c r="V24" s="23">
+        <f t="shared" si="42"/>
         <v>844</v>
       </c>
-      <c r="W24" s="26"/>
-      <c r="X24" s="26"/>
-      <c r="Y24" s="26"/>
-      <c r="Z24" s="26"/>
-      <c r="AA24" s="26"/>
-      <c r="AB24" s="26"/>
-      <c r="AC24" s="26"/>
+      <c r="W24" s="23"/>
+      <c r="X24" s="23"/>
+      <c r="Y24" s="23"/>
+      <c r="Z24" s="23"/>
+      <c r="AA24" s="23"/>
+      <c r="AB24" s="23"/>
+      <c r="AC24" s="23"/>
     </row>
     <row r="25" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
@@ -2930,32 +2973,36 @@
         <f>+J24/J27</f>
         <v>0.54641909814323608</v>
       </c>
+      <c r="K26" s="9">
+        <f>+K24/K27</f>
+        <v>0.51604278074866305</v>
+      </c>
       <c r="P26" s="9">
-        <f>P24/P27</f>
+        <f t="shared" ref="P26:V26" si="43">P24/P27</f>
         <v>2.5850515463917527</v>
       </c>
       <c r="Q26" s="9">
-        <f>Q24/Q27</f>
+        <f t="shared" si="43"/>
         <v>0.9285714285714286</v>
       </c>
       <c r="R26" s="9">
-        <f>R24/R27</f>
+        <f t="shared" si="43"/>
         <v>-1.7780748663101604</v>
       </c>
       <c r="S26" s="9">
-        <f>S24/S27</f>
+        <f t="shared" si="43"/>
         <v>0.68085106382978722</v>
       </c>
       <c r="T26" s="9">
-        <f>T24/T27</f>
+        <f t="shared" si="43"/>
         <v>-0.55040871934604907</v>
       </c>
       <c r="U26" s="9">
-        <f>U24/U27</f>
+        <f t="shared" si="43"/>
         <v>1.3567567567567567</v>
       </c>
       <c r="V26" s="9">
-        <f>V24/V27</f>
+        <f t="shared" si="43"/>
         <v>2.2446808510638299</v>
       </c>
     </row>
@@ -2988,7 +3035,9 @@
       <c r="J27" s="23">
         <v>377</v>
       </c>
-      <c r="K27" s="23"/>
+      <c r="K27" s="23">
+        <v>374</v>
+      </c>
       <c r="L27" s="23"/>
       <c r="M27" s="23"/>
       <c r="N27" s="23"/>
@@ -3041,49 +3090,52 @@
       <c r="E29" s="23"/>
       <c r="F29" s="23"/>
       <c r="G29" s="8">
-        <f t="shared" ref="G29:I29" si="41">+G3/C3-1</f>
+        <f t="shared" ref="G29:I29" si="44">+G3/C3-1</f>
         <v>-1.8069973087274094E-2</v>
       </c>
       <c r="H29" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>-1.967592592592593E-2</v>
       </c>
       <c r="I29" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>-2.0785219399538146E-2</v>
       </c>
       <c r="J29" s="8">
         <f>+J3/F3-1</f>
         <v>-2.1857923497267784E-2</v>
       </c>
-      <c r="K29" s="5"/>
+      <c r="K29" s="8">
+        <f>+K3/G3-1</f>
+        <v>-2.2709475332811313E-2</v>
+      </c>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="8">
-        <f>Q3/P3-1</f>
+        <f t="shared" ref="Q29:V30" si="45">Q3/P3-1</f>
         <v>4.7276142767689322E-2</v>
       </c>
       <c r="R29" s="8">
-        <f>R3/Q3-1</f>
+        <f t="shared" si="45"/>
         <v>-0.15246636771300448</v>
       </c>
       <c r="S29" s="8">
-        <f>S3/R3-1</f>
+        <f t="shared" si="45"/>
         <v>-5.2910052910052907E-2</v>
       </c>
       <c r="T29" s="8">
-        <f>T3/S3-1</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="U29" s="8">
-        <f>U3/T3-1</f>
+        <f t="shared" si="45"/>
         <v>-4.5810055865921795E-2</v>
       </c>
       <c r="V29" s="8">
-        <f>V3/U3-1</f>
+        <f t="shared" si="45"/>
         <v>-2.1857923497267784E-2</v>
       </c>
       <c r="W29" s="5"/>
@@ -3107,49 +3159,52 @@
       <c r="E30" s="23"/>
       <c r="F30" s="23"/>
       <c r="G30" s="8">
-        <f t="shared" ref="G30:I30" si="42">+G4/C4-1</f>
+        <f t="shared" ref="G30:I30" si="46">+G4/C4-1</f>
         <v>0.19366197183098599</v>
       </c>
       <c r="H30" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>0.18865740740740744</v>
       </c>
       <c r="I30" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>0.13262032085561493</v>
       </c>
       <c r="J30" s="8">
         <f>+J4/F4-1</f>
         <v>6.5130260521041983E-2</v>
       </c>
-      <c r="K30" s="5"/>
+      <c r="K30" s="8">
+        <f>+K4/G4-1</f>
+        <v>-1.6715830875122961E-2</v>
+      </c>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="8">
-        <f>Q4/P4-1</f>
+        <f t="shared" si="45"/>
         <v>0.21610169491525433</v>
       </c>
       <c r="R30" s="8">
-        <f>R4/Q4-1</f>
+        <f t="shared" si="45"/>
         <v>-1.7421602787456414E-2</v>
       </c>
       <c r="S30" s="8">
-        <f>S4/R4-1</f>
+        <f t="shared" si="45"/>
         <v>0.18262411347517737</v>
       </c>
       <c r="T30" s="8">
-        <f>T4/S4-1</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="U30" s="8">
-        <f>U4/T4-1</f>
+        <f t="shared" si="45"/>
         <v>0.49625187406296845</v>
       </c>
       <c r="V30" s="8">
-        <f>V4/U4-1</f>
+        <f t="shared" si="45"/>
         <v>6.5130260521041983E-2</v>
       </c>
       <c r="W30" s="5"/>
@@ -3173,49 +3228,52 @@
       <c r="E31" s="23"/>
       <c r="F31" s="23"/>
       <c r="G31" s="8">
-        <f t="shared" ref="G31:G34" si="43">+G8/C8-1</f>
+        <f t="shared" ref="G31:G34" si="47">+G8/C8-1</f>
         <v>4.8140043763676088E-2</v>
       </c>
       <c r="H31" s="8">
-        <f t="shared" ref="H31:H34" si="44">+H8/D8-1</f>
+        <f t="shared" ref="H31:H34" si="48">+H8/D8-1</f>
         <v>8.2610912799591985E-2</v>
       </c>
       <c r="I31" s="8">
-        <f t="shared" ref="I31:I34" si="45">+I8/E8-1</f>
+        <f t="shared" ref="I31:I34" si="49">+I8/E8-1</f>
         <v>1.1288805268109048E-2</v>
       </c>
       <c r="J31" s="8">
-        <f t="shared" ref="J31:J33" si="46">+J8/F8-1</f>
+        <f t="shared" ref="J31:K33" si="50">+J8/F8-1</f>
         <v>-3.321678321678323E-2</v>
       </c>
-      <c r="K31" s="5"/>
+      <c r="K31" s="8">
+        <f t="shared" si="50"/>
+        <v>3.3924843423799533E-2</v>
+      </c>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="8" t="e">
-        <f t="shared" ref="Q31:V33" si="47">+Q8/P8-1</f>
+        <f t="shared" ref="Q31:U33" si="51">+Q8/P8-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R31" s="8" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S31" s="8" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T31" s="8" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U31" s="8">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>-3.764877337867345E-3</v>
       </c>
       <c r="V31" s="8">
-        <f t="shared" ref="V31:V33" si="48">+V8/U8-1</f>
+        <f t="shared" ref="V31:V33" si="52">+V8/U8-1</f>
         <v>2.4137510666829121E-2</v>
       </c>
       <c r="W31" s="5"/>
@@ -3239,49 +3297,52 @@
       <c r="E32" s="23"/>
       <c r="F32" s="23"/>
       <c r="G32" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-4.3352601156069204E-3</v>
       </c>
       <c r="H32" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>1.4569536423840956E-2</v>
       </c>
       <c r="I32" s="8">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>1.3528748590755368E-2</v>
       </c>
       <c r="J32" s="8">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>-2.6812313803376342E-2</v>
       </c>
-      <c r="K32" s="5"/>
+      <c r="K32" s="8">
+        <f t="shared" si="50"/>
+        <v>5.079825834542806E-2</v>
+      </c>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
       <c r="Q32" s="8" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R32" s="8" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S32" s="8" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T32" s="8" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U32" s="8">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>-0.11473237943826176</v>
       </c>
       <c r="V32" s="8">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>-2.0951810835079243E-3</v>
       </c>
       <c r="W32" s="5"/>
@@ -3305,49 +3366,52 @@
       <c r="E33" s="23"/>
       <c r="F33" s="23"/>
       <c r="G33" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>1.8518518518518601E-2</v>
       </c>
       <c r="H33" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>-2.0833333333333259E-3</v>
       </c>
       <c r="I33" s="8">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>1.9565217391304346E-2</v>
       </c>
       <c r="J33" s="8">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>6.7019400352733793E-2</v>
       </c>
-      <c r="K33" s="5"/>
+      <c r="K33" s="8">
+        <f t="shared" si="50"/>
+        <v>-2.7272727272727226E-2</v>
+      </c>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="8" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R33" s="8" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S33" s="8" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T33" s="8" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U33" s="8">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>-8.364839319470696E-2</v>
       </c>
       <c r="V33" s="8">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>2.7849406910778862E-2</v>
       </c>
       <c r="W33" s="5"/>
@@ -3371,45 +3435,48 @@
       <c r="E34" s="23"/>
       <c r="F34" s="23"/>
       <c r="G34" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>2.4922118380062308E-2</v>
       </c>
       <c r="H34" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>-8.7976539589442737E-3</v>
       </c>
       <c r="I34" s="8">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>3.9426523297491078E-2</v>
       </c>
       <c r="J34" s="8">
         <f>+J11/F11-1</f>
         <v>-5.4892601431980936E-2</v>
       </c>
-      <c r="K34" s="5"/>
+      <c r="K34" s="8">
+        <f>+K11/G11-1</f>
+        <v>-6.3829787234042534E-2</v>
+      </c>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="8" t="e">
-        <f t="shared" ref="Q34:V34" si="49">+Q11/P11-1</f>
+        <f t="shared" ref="Q34:U34" si="53">+Q11/P11-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R34" s="8" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S34" s="8" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T34" s="8" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U34" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>-8.108108108108103E-2</v>
       </c>
       <c r="V34" s="8">
@@ -3436,50 +3503,53 @@
       <c r="D35" s="23"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="30">
-        <f t="shared" ref="G35:G36" si="50">+G13/C13-1</f>
+      <c r="G35" s="26">
+        <f t="shared" ref="G35:G36" si="54">+G13/C13-1</f>
         <v>2.5815879201169123E-2</v>
       </c>
-      <c r="H35" s="30">
-        <f t="shared" ref="H35:H36" si="51">+H13/D13-1</f>
+      <c r="H35" s="26">
+        <f t="shared" ref="H35:H36" si="55">+H13/D13-1</f>
         <v>3.7285295349811509E-2</v>
       </c>
-      <c r="I35" s="30">
-        <f t="shared" ref="I35:I36" si="52">+I13/E13-1</f>
+      <c r="I35" s="26">
+        <f t="shared" ref="I35:I36" si="56">+I13/E13-1</f>
         <v>-1.8018018018018056E-2</v>
       </c>
-      <c r="J35" s="30">
-        <f t="shared" ref="J35" si="53">+J13/F13-1</f>
+      <c r="J35" s="26">
+        <f t="shared" ref="J35:K35" si="57">+J13/F13-1</f>
         <v>-4.4271844660194182E-2</v>
       </c>
-      <c r="K35" s="5"/>
+      <c r="K35" s="26">
+        <f t="shared" si="57"/>
+        <v>3.0531813865146695E-3</v>
+      </c>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="8">
-        <f>Q13/P13-1</f>
+        <f t="shared" ref="Q35:V37" si="58">Q13/P13-1</f>
         <v>-4.4086773967809689E-2</v>
       </c>
       <c r="R35" s="8">
-        <f>R13/Q13-1</f>
+        <f t="shared" si="58"/>
         <v>-0.38815682446721977</v>
       </c>
       <c r="S35" s="8">
-        <f>S13/R13-1</f>
+        <f t="shared" si="58"/>
         <v>0.36120712576442426</v>
       </c>
       <c r="T35" s="8">
-        <f>T13/S13-1</f>
+        <f t="shared" si="58"/>
         <v>-5.742748315265167E-2</v>
       </c>
       <c r="U35" s="8">
-        <f>U13/T13-1</f>
+        <f t="shared" si="58"/>
         <v>-3.1602942700238335E-2</v>
       </c>
       <c r="V35" s="8">
-        <f>V13/U13-1</f>
+        <f t="shared" si="58"/>
         <v>-1.4979670447250459E-3</v>
       </c>
       <c r="W35" s="5"/>
@@ -3502,50 +3572,53 @@
       <c r="D36" s="23"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="30">
-        <f t="shared" si="50"/>
+      <c r="G36" s="26">
+        <f t="shared" si="54"/>
         <v>4.8242027800490694E-2</v>
       </c>
-      <c r="H36" s="30">
-        <f t="shared" si="51"/>
+      <c r="H36" s="26">
+        <f t="shared" si="55"/>
         <v>5.4263565891472965E-2</v>
       </c>
-      <c r="I36" s="30">
-        <f t="shared" si="52"/>
+      <c r="I36" s="26">
+        <f t="shared" si="56"/>
         <v>7.2423398328690824E-2</v>
       </c>
-      <c r="J36" s="30">
+      <c r="J36" s="26">
         <f>+J14/F14-1</f>
         <v>-8.7057457922228298E-3</v>
       </c>
-      <c r="K36" s="5"/>
+      <c r="K36" s="26">
+        <f>+K14/G14-1</f>
+        <v>5.3486739469578826E-2</v>
+      </c>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="8">
-        <f>Q14/P14-1</f>
+        <f t="shared" si="58"/>
         <v>9.9489109975799961E-2</v>
       </c>
       <c r="R36" s="8">
-        <f>R14/Q14-1</f>
+        <f t="shared" si="58"/>
         <v>0.53533871362191254</v>
       </c>
       <c r="S36" s="8">
-        <f>S14/R14-1</f>
+        <f t="shared" si="58"/>
         <v>2.4370818732080357E-2</v>
       </c>
       <c r="T36" s="8">
-        <f>T14/S14-1</f>
+        <f t="shared" si="58"/>
         <v>-7.2461514538951999E-2</v>
       </c>
       <c r="U36" s="8">
-        <f>U14/T14-1</f>
+        <f t="shared" si="58"/>
         <v>-7.0746018440905334E-2</v>
       </c>
       <c r="V36" s="8">
-        <f>V14/U14-1</f>
+        <f t="shared" si="58"/>
         <v>3.8066029226050846E-2</v>
       </c>
       <c r="W36" s="5"/>
@@ -3568,50 +3641,53 @@
       <c r="D37" s="24"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="29">
+      <c r="G37" s="25">
         <f>G15/C15-1</f>
         <v>3.4188034188034289E-2</v>
       </c>
-      <c r="H37" s="29">
+      <c r="H37" s="25">
         <f>H15/D15-1</f>
         <v>4.8478015783540052E-2</v>
       </c>
-      <c r="I37" s="29">
+      <c r="I37" s="25">
         <f>I15/E15-1</f>
         <v>1.6458720467215304E-2</v>
       </c>
-      <c r="J37" s="29">
+      <c r="J37" s="25">
         <f>J15/F15-1</f>
         <v>-3.4667287110283884E-2</v>
       </c>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
+      <c r="K37" s="25">
+        <f>K15/G15-1</f>
+        <v>2.2136953955135708E-2</v>
+      </c>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
       <c r="P37" s="7"/>
-      <c r="Q37" s="29">
-        <f>Q15/P15-1</f>
+      <c r="Q37" s="25">
+        <f t="shared" si="58"/>
         <v>-1.1881785283474056E-2</v>
       </c>
-      <c r="R37" s="29">
-        <f>R15/Q15-1</f>
+      <c r="R37" s="25">
+        <f t="shared" si="58"/>
         <v>-0.15766343160593299</v>
       </c>
-      <c r="S37" s="29">
-        <f>S15/R15-1</f>
+      <c r="S37" s="25">
+        <f t="shared" si="58"/>
         <v>0.20797101449275357</v>
       </c>
-      <c r="T37" s="29">
-        <f>T15/S15-1</f>
+      <c r="T37" s="25">
+        <f t="shared" si="58"/>
         <v>-6.3227354529094226E-2</v>
       </c>
-      <c r="U37" s="29">
-        <f>U15/T15-1</f>
+      <c r="U37" s="25">
+        <f t="shared" si="58"/>
         <v>-4.6554815573770503E-2</v>
       </c>
-      <c r="V37" s="29">
-        <f>V15/U15-1</f>
+      <c r="V37" s="25">
+        <f t="shared" si="58"/>
         <v>1.3231244542951215E-2</v>
       </c>
       <c r="W37" s="5"/>
@@ -3631,65 +3707,68 @@
         <v>34</v>
       </c>
       <c r="C38" s="8">
-        <f>C17/C15</f>
+        <f t="shared" ref="C38:J38" si="59">C17/C15</f>
         <v>0.37057387057387059</v>
       </c>
       <c r="D38" s="8">
-        <f>D17/D15</f>
+        <f t="shared" si="59"/>
         <v>0.37570462232243518</v>
       </c>
       <c r="E38" s="8">
-        <f>E17/E15</f>
+        <f t="shared" si="59"/>
         <v>0.41306079108043536</v>
       </c>
       <c r="F38" s="8">
-        <f>F17/F15</f>
+        <f t="shared" si="59"/>
         <v>0.3890181479758027</v>
       </c>
       <c r="G38" s="8">
-        <f>G17/G15</f>
+        <f t="shared" si="59"/>
         <v>0.41233766233766234</v>
       </c>
       <c r="H38" s="8">
-        <f>H17/H15</f>
+        <f t="shared" si="59"/>
         <v>0.42553763440860215</v>
       </c>
       <c r="I38" s="8">
-        <f>I17/I15</f>
+        <f t="shared" si="59"/>
         <v>0.42700443980151476</v>
       </c>
       <c r="J38" s="8">
-        <f>J17/J15</f>
+        <f t="shared" si="59"/>
         <v>0.38852735598939503</v>
       </c>
-      <c r="K38" s="8"/>
+      <c r="K38" s="8">
+        <f t="shared" ref="K38" si="60">K17/K15</f>
+        <v>0.41813456540571758</v>
+      </c>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
       <c r="Q38" s="8">
-        <f>Q17/Q15</f>
+        <f t="shared" ref="Q38:V38" si="61">Q17/Q15</f>
         <v>0.37435146188121832</v>
       </c>
       <c r="R38" s="8">
-        <f>R17/R15</f>
+        <f t="shared" si="61"/>
         <v>0.34094202898550724</v>
       </c>
       <c r="S38" s="8">
-        <f>S17/S15</f>
+        <f t="shared" si="61"/>
         <v>0.39814037192561486</v>
       </c>
       <c r="T38" s="8">
-        <f>T17/T15</f>
+        <f t="shared" si="61"/>
         <v>0.34317366803278687</v>
       </c>
       <c r="U38" s="8">
-        <f>U17/U15</f>
+        <f t="shared" si="61"/>
         <v>0.38787023977433005</v>
       </c>
       <c r="V38" s="8">
-        <f>V17/V15</f>
+        <f t="shared" si="61"/>
         <v>0.41276680365902163</v>
       </c>
       <c r="W38" s="5"/>
@@ -3709,65 +3788,68 @@
         <v>35</v>
       </c>
       <c r="C39" s="8">
-        <f>C19/C15</f>
+        <f t="shared" ref="C39:J39" si="62">C19/C15</f>
         <v>-3.0525030525030525E-3</v>
       </c>
       <c r="D39" s="8">
-        <f>D19/D15</f>
+        <f t="shared" si="62"/>
         <v>2.987598647125141E-2</v>
       </c>
       <c r="E39" s="8">
-        <f>E19/E15</f>
+        <f t="shared" si="62"/>
         <v>6.636580833554552E-2</v>
       </c>
       <c r="F39" s="8">
-        <f>F19/F15</f>
+        <f t="shared" si="62"/>
         <v>4.9790600279199626E-2</v>
       </c>
       <c r="G39" s="8">
-        <f>G19/G15</f>
+        <f t="shared" si="62"/>
         <v>6.0507674144037779E-2</v>
       </c>
       <c r="H39" s="8">
-        <f>H19/H15</f>
+        <f t="shared" si="62"/>
         <v>7.8763440860215056E-2</v>
       </c>
       <c r="I39" s="8">
-        <f>I19/I15</f>
+        <f t="shared" si="62"/>
         <v>9.2713502219900754E-2</v>
       </c>
       <c r="J39" s="8">
-        <f>J19/J15</f>
+        <f t="shared" si="62"/>
         <v>6.2424680645938778E-2</v>
       </c>
-      <c r="K39" s="8"/>
+      <c r="K39" s="8">
+        <f t="shared" ref="K39" si="63">K19/K15</f>
+        <v>7.5079410915391276E-2</v>
+      </c>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="8">
-        <f>Q19/Q15</f>
+        <f t="shared" ref="Q39:V39" si="64">Q19/Q15</f>
         <v>3.5036318134651773E-2</v>
       </c>
       <c r="R39" s="8">
-        <f>R19/R15</f>
+        <f t="shared" si="64"/>
         <v>-6.246376811594203E-2</v>
       </c>
       <c r="S39" s="8">
-        <f>S19/S15</f>
+        <f t="shared" si="64"/>
         <v>4.8590281943611278E-2</v>
       </c>
       <c r="T39" s="8">
-        <f>T19/T15</f>
+        <f t="shared" si="64"/>
         <v>-4.4185450819672128E-3</v>
       </c>
       <c r="U39" s="8">
-        <f>U19/U15</f>
+        <f t="shared" si="64"/>
         <v>3.7611659614480486E-2</v>
       </c>
       <c r="V39" s="8">
-        <f>V19/V15</f>
+        <f t="shared" si="64"/>
         <v>7.3710725175659547E-2</v>
       </c>
       <c r="W39" s="5"/>
@@ -3788,61 +3870,64 @@
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8">
-        <f>(D19-C19)/(D17-C17)</f>
+        <f t="shared" ref="D40:J40" si="65">(D19-C19)/(D17-C17)</f>
         <v>0.97478991596638653</v>
       </c>
       <c r="E40" s="8">
-        <f>(E19-D19)/(E17-D17)</f>
+        <f t="shared" si="65"/>
         <v>0.64573991031390132</v>
       </c>
       <c r="F40" s="8">
-        <f>(F19-E19)/(F17-E17)</f>
+        <f t="shared" si="65"/>
         <v>-0.31034482758620691</v>
       </c>
       <c r="G40" s="8">
-        <f>(G19-F19)/(G17-F17)</f>
+        <f t="shared" si="65"/>
         <v>3.272727272727273E-2</v>
       </c>
       <c r="H40" s="8">
-        <f>(H19-G19)/(H17-G17)</f>
+        <f t="shared" si="65"/>
         <v>0.4731182795698925</v>
       </c>
       <c r="I40" s="8">
-        <f>(I19-H19)/(I17-H17)</f>
+        <f t="shared" si="65"/>
         <v>1.1923076923076923</v>
       </c>
       <c r="J40" s="8">
-        <f>(J19-I19)/(J17-I17)</f>
+        <f t="shared" si="65"/>
         <v>4.1739130434782608</v>
       </c>
-      <c r="K40" s="8"/>
+      <c r="K40" s="8">
+        <f t="shared" ref="K40" si="66">(K19-J19)/(K17-J17)</f>
+        <v>-6.0975609756097563E-3</v>
+      </c>
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
       <c r="Q40" s="8">
-        <f>(Q19-P19)/(Q15-P15)</f>
+        <f t="shared" ref="Q40:V40" si="67">(Q19-P19)/(Q15-P15)</f>
         <v>4</v>
       </c>
       <c r="R40" s="8">
-        <f>(R19-Q19)/(R15-Q15)</f>
+        <f t="shared" si="67"/>
         <v>0.55594270228416565</v>
       </c>
       <c r="S40" s="8">
-        <f>(S19-R19)/(S15-R15)</f>
+        <f t="shared" si="67"/>
         <v>0.58257839721254356</v>
       </c>
       <c r="T40" s="8">
-        <f>(T19-S19)/(T15-S15)</f>
+        <f t="shared" si="67"/>
         <v>0.83396584440227706</v>
       </c>
       <c r="U40" s="8">
-        <f>(U19-T19)/(U15-T15)</f>
+        <f t="shared" si="67"/>
         <v>-0.86519944979367258</v>
       </c>
       <c r="V40" s="8">
-        <f>(V19-U19)/(V15-U15)</f>
+        <f t="shared" si="67"/>
         <v>2.8020304568527918</v>
       </c>
       <c r="W40" s="5"/>
@@ -3862,65 +3947,68 @@
         <v>36</v>
       </c>
       <c r="C41" s="8">
-        <f>C23/C22</f>
+        <f t="shared" ref="C41:J41" si="68">C23/C22</f>
         <v>0.1</v>
       </c>
       <c r="D41" s="8">
-        <f>D23/D22</f>
+        <f t="shared" si="68"/>
         <v>-8.3333333333333329E-2</v>
       </c>
       <c r="E41" s="8">
-        <f>E23/E22</f>
+        <f t="shared" si="68"/>
         <v>0.128</v>
       </c>
       <c r="F41" s="8">
-        <f>F23/F22</f>
+        <f t="shared" si="68"/>
         <v>0.15137614678899083</v>
       </c>
       <c r="G41" s="8">
-        <f>G23/G22</f>
+        <f t="shared" si="68"/>
         <v>0.24038461538461539</v>
       </c>
       <c r="H41" s="8">
-        <f>H23/H22</f>
+        <f t="shared" si="68"/>
         <v>0.30405405405405406</v>
       </c>
       <c r="I41" s="8">
-        <f>I23/I22</f>
+        <f t="shared" si="68"/>
         <v>0.24099722991689751</v>
       </c>
       <c r="J41" s="8">
-        <f>J23/J22</f>
+        <f t="shared" si="68"/>
         <v>0.24264705882352941</v>
       </c>
-      <c r="K41" s="8"/>
+      <c r="K41" s="8">
+        <f t="shared" ref="K41" si="69">K23/K22</f>
+        <v>0.26615969581749049</v>
+      </c>
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
       <c r="Q41" s="8">
-        <f>Q23/Q22</f>
+        <f t="shared" ref="Q41:V41" si="70">Q23/Q22</f>
         <v>0.33522727272727271</v>
       </c>
       <c r="R41" s="8">
-        <f>R23/R22</f>
+        <f t="shared" si="70"/>
         <v>0.39655172413793105</v>
       </c>
       <c r="S41" s="8">
-        <f>S23/S22</f>
+        <f t="shared" si="70"/>
         <v>0.20743034055727555</v>
       </c>
       <c r="T41" s="8">
-        <f>T23/T22</f>
+        <f t="shared" si="70"/>
         <v>-0.45323741007194246</v>
       </c>
       <c r="U41" s="8">
-        <f>U23/U22</f>
+        <f t="shared" si="70"/>
         <v>9.7122302158273388E-2</v>
       </c>
       <c r="V41" s="8">
-        <f>V23/V22</f>
+        <f t="shared" si="70"/>
         <v>0.25769569041336854</v>
       </c>
       <c r="W41" s="5"/>
@@ -4188,72 +4276,72 @@
       <c r="AG47" s="5"/>
     </row>
     <row r="48" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B48" s="25" t="s">
+      <c r="B48" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="26">
+      <c r="C48" s="23">
         <f>SUM(C44:C47)</f>
         <v>4283</v>
       </c>
-      <c r="D48" s="26">
-        <f t="shared" ref="D48:J48" si="54">SUM(D44:D47)</f>
-        <v>0</v>
-      </c>
-      <c r="E48" s="26">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="F48" s="26">
-        <f t="shared" si="54"/>
+      <c r="D48" s="23">
+        <f t="shared" ref="D48:J48" si="71">SUM(D44:D47)</f>
+        <v>0</v>
+      </c>
+      <c r="E48" s="23">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F48" s="23">
+        <f t="shared" si="71"/>
         <v>1902</v>
       </c>
-      <c r="G48" s="26">
-        <f t="shared" si="54"/>
+      <c r="G48" s="23">
+        <f t="shared" si="71"/>
         <v>4197</v>
       </c>
-      <c r="H48" s="26">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="I48" s="26">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="J48" s="26">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="K48" s="26"/>
-      <c r="L48" s="26"/>
-      <c r="M48" s="26"/>
-      <c r="N48" s="26"/>
-      <c r="O48" s="26"/>
-      <c r="P48" s="26">
-        <f t="shared" ref="P48" si="55">SUM(P44:P47)</f>
-        <v>0</v>
-      </c>
-      <c r="Q48" s="26">
-        <f t="shared" ref="Q48" si="56">SUM(Q44:Q47)</f>
-        <v>0</v>
-      </c>
-      <c r="R48" s="26">
-        <f t="shared" ref="R48" si="57">SUM(R44:R47)</f>
-        <v>0</v>
-      </c>
-      <c r="S48" s="26">
-        <f t="shared" ref="S48" si="58">SUM(S44:S47)</f>
-        <v>0</v>
-      </c>
-      <c r="T48" s="26">
-        <f t="shared" ref="T48" si="59">SUM(T44:T47)</f>
+      <c r="H48" s="23">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="23">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="23">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="23"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="23"/>
+      <c r="P48" s="23">
+        <f t="shared" ref="P48" si="72">SUM(P44:P47)</f>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="23">
+        <f t="shared" ref="Q48" si="73">SUM(Q44:Q47)</f>
+        <v>0</v>
+      </c>
+      <c r="R48" s="23">
+        <f t="shared" ref="R48" si="74">SUM(R44:R47)</f>
+        <v>0</v>
+      </c>
+      <c r="S48" s="23">
+        <f t="shared" ref="S48" si="75">SUM(S44:S47)</f>
+        <v>0</v>
+      </c>
+      <c r="T48" s="23">
+        <f t="shared" ref="T48" si="76">SUM(T44:T47)</f>
         <v>4617</v>
       </c>
-      <c r="U48" s="26">
-        <f t="shared" ref="U48:V48" si="60">SUM(U44:U47)</f>
+      <c r="U48" s="23">
+        <f t="shared" ref="U48:V48" si="77">SUM(U44:U47)</f>
         <v>4395</v>
       </c>
-      <c r="V48" s="26">
-        <f t="shared" si="60"/>
+      <c r="V48" s="23">
+        <f t="shared" si="77"/>
         <v>5203</v>
       </c>
       <c r="W48" s="5"/>
@@ -4268,7 +4356,7 @@
       <c r="AF48" s="5"/>
       <c r="AG48" s="5"/>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>43</v>
       </c>
@@ -4314,7 +4402,7 @@
       <c r="AF49" s="5"/>
       <c r="AG49" s="5"/>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>44</v>
       </c>
@@ -4360,7 +4448,7 @@
       <c r="AF50" s="5"/>
       <c r="AG50" s="5"/>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>45</v>
       </c>
@@ -4406,73 +4494,73 @@
       <c r="AF51" s="5"/>
       <c r="AG51" s="5"/>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B52" s="25" t="s">
+    <row r="52" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
         <v>46</v>
       </c>
-      <c r="C52" s="26">
+      <c r="C52" s="23">
         <f>SUM(C49:C51)</f>
         <v>6649</v>
       </c>
-      <c r="D52" s="26">
-        <f t="shared" ref="D52:J52" si="61">SUM(D49:D51)</f>
-        <v>0</v>
-      </c>
-      <c r="E52" s="26">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="F52" s="26">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="G52" s="26">
-        <f t="shared" si="61"/>
+      <c r="D52" s="23">
+        <f t="shared" ref="D52:J52" si="78">SUM(D49:D51)</f>
+        <v>0</v>
+      </c>
+      <c r="E52" s="23">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="F52" s="23">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="23">
+        <f t="shared" si="78"/>
         <v>6711</v>
       </c>
-      <c r="H52" s="26">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="I52" s="26">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="J52" s="26">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="K52" s="26"/>
-      <c r="L52" s="26"/>
-      <c r="M52" s="26"/>
-      <c r="N52" s="26"/>
-      <c r="O52" s="26"/>
-      <c r="P52" s="26">
-        <f t="shared" ref="P52" si="62">SUM(P49:P51)</f>
-        <v>0</v>
-      </c>
-      <c r="Q52" s="26">
-        <f t="shared" ref="Q52" si="63">SUM(Q49:Q51)</f>
-        <v>0</v>
-      </c>
-      <c r="R52" s="26">
-        <f t="shared" ref="R52" si="64">SUM(R49:R51)</f>
-        <v>0</v>
-      </c>
-      <c r="S52" s="26">
-        <f t="shared" ref="S52" si="65">SUM(S49:S51)</f>
-        <v>0</v>
-      </c>
-      <c r="T52" s="26">
-        <f t="shared" ref="T52" si="66">SUM(T49:T51)</f>
+      <c r="H52" s="23">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="23">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="23">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="23"/>
+      <c r="L52" s="23"/>
+      <c r="M52" s="23"/>
+      <c r="N52" s="23"/>
+      <c r="O52" s="23"/>
+      <c r="P52" s="23">
+        <f t="shared" ref="P52" si="79">SUM(P49:P51)</f>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="23">
+        <f t="shared" ref="Q52" si="80">SUM(Q49:Q51)</f>
+        <v>0</v>
+      </c>
+      <c r="R52" s="23">
+        <f t="shared" ref="R52" si="81">SUM(R49:R51)</f>
+        <v>0</v>
+      </c>
+      <c r="S52" s="23">
+        <f t="shared" ref="S52" si="82">SUM(S49:S51)</f>
+        <v>0</v>
+      </c>
+      <c r="T52" s="23">
+        <f t="shared" ref="T52" si="83">SUM(T49:T51)</f>
         <v>6769</v>
       </c>
-      <c r="U52" s="26">
-        <f t="shared" ref="U52" si="67">SUM(U49:U51)</f>
+      <c r="U52" s="23">
+        <f t="shared" ref="U52" si="84">SUM(U49:U51)</f>
         <v>6649</v>
       </c>
-      <c r="V52" s="26">
-        <f t="shared" ref="V52" si="68">SUM(V49:V51)</f>
+      <c r="V52" s="23">
+        <f t="shared" ref="V52" si="85">SUM(V49:V51)</f>
         <v>6682</v>
       </c>
       <c r="W52" s="5"/>
@@ -4487,40 +4575,40 @@
       <c r="AF52" s="5"/>
       <c r="AG52" s="5"/>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B53" s="6" t="s">
         <v>47</v>
       </c>
       <c r="C53" s="24">
-        <f>C52+C48</f>
+        <f t="shared" ref="C53:J53" si="86">C52+C48</f>
         <v>10932</v>
       </c>
       <c r="D53" s="24">
-        <f>D52+D48</f>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="E53" s="24">
-        <f>E52+E48</f>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="F53" s="24">
-        <f>F52+F48</f>
+        <f t="shared" si="86"/>
         <v>1902</v>
       </c>
       <c r="G53" s="24">
-        <f>G52+G48</f>
+        <f t="shared" si="86"/>
         <v>10908</v>
       </c>
       <c r="H53" s="24">
-        <f>H52+H48</f>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="I53" s="24">
-        <f>I52+I48</f>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="J53" s="24">
-        <f>J52+J48</f>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="K53" s="24"/>
@@ -4529,31 +4617,31 @@
       <c r="N53" s="23"/>
       <c r="O53" s="23"/>
       <c r="P53" s="24">
-        <f>P52+P48</f>
+        <f t="shared" ref="P53:V53" si="87">P52+P48</f>
         <v>0</v>
       </c>
       <c r="Q53" s="24">
-        <f>Q52+Q48</f>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="R53" s="24">
-        <f>R52+R48</f>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="S53" s="24">
-        <f>S52+S48</f>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="T53" s="24">
-        <f>T52+T48</f>
+        <f t="shared" si="87"/>
         <v>11386</v>
       </c>
       <c r="U53" s="24">
-        <f>U52+U48</f>
+        <f t="shared" si="87"/>
         <v>11044</v>
       </c>
       <c r="V53" s="24">
-        <f>V52+V48</f>
+        <f t="shared" si="87"/>
         <v>11885</v>
       </c>
       <c r="W53" s="5"/>
@@ -4568,7 +4656,7 @@
       <c r="AF53" s="5"/>
       <c r="AG53" s="5"/>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>48</v>
       </c>
@@ -4614,7 +4702,7 @@
       <c r="AF54" s="5"/>
       <c r="AG54" s="5"/>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>42</v>
       </c>
@@ -4660,7 +4748,7 @@
       <c r="AF55" s="5"/>
       <c r="AG55" s="5"/>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>49</v>
       </c>
@@ -4706,7 +4794,7 @@
       <c r="AF56" s="5"/>
       <c r="AG56" s="5"/>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>50</v>
       </c>
@@ -4752,74 +4840,73 @@
       <c r="AF57" s="5"/>
       <c r="AG57" s="5"/>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A58" s="28"/>
-      <c r="B58" s="25" t="s">
+    <row r="58" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>51</v>
       </c>
-      <c r="C58" s="26">
+      <c r="C58" s="23">
         <f>SUM(C54:C57)</f>
         <v>2918</v>
       </c>
-      <c r="D58" s="26">
-        <f t="shared" ref="D58:J58" si="69">SUM(D54:D57)</f>
-        <v>0</v>
-      </c>
-      <c r="E58" s="26">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="F58" s="26">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="G58" s="26">
-        <f t="shared" si="69"/>
+      <c r="D58" s="23">
+        <f t="shared" ref="D58:J58" si="88">SUM(D54:D57)</f>
+        <v>0</v>
+      </c>
+      <c r="E58" s="23">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="F58" s="23">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="23">
+        <f t="shared" si="88"/>
         <v>2806</v>
       </c>
-      <c r="H58" s="26">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="I58" s="26">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="J58" s="26">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="K58" s="26"/>
-      <c r="L58" s="26"/>
-      <c r="M58" s="26"/>
-      <c r="N58" s="26"/>
-      <c r="O58" s="26"/>
-      <c r="P58" s="26">
-        <f t="shared" ref="P58" si="70">SUM(P54:P57)</f>
-        <v>0</v>
-      </c>
-      <c r="Q58" s="26">
-        <f t="shared" ref="Q58" si="71">SUM(Q54:Q57)</f>
-        <v>0</v>
-      </c>
-      <c r="R58" s="26">
-        <f t="shared" ref="R58" si="72">SUM(R54:R57)</f>
-        <v>0</v>
-      </c>
-      <c r="S58" s="26">
-        <f t="shared" ref="S58" si="73">SUM(S54:S57)</f>
-        <v>0</v>
-      </c>
-      <c r="T58" s="26">
-        <f t="shared" ref="T58" si="74">SUM(T54:T57)</f>
+      <c r="H58" s="23">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="23">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="23">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="23"/>
+      <c r="L58" s="23"/>
+      <c r="M58" s="23"/>
+      <c r="N58" s="23"/>
+      <c r="O58" s="23"/>
+      <c r="P58" s="23">
+        <f t="shared" ref="P58" si="89">SUM(P54:P57)</f>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="23">
+        <f t="shared" ref="Q58" si="90">SUM(Q54:Q57)</f>
+        <v>0</v>
+      </c>
+      <c r="R58" s="23">
+        <f t="shared" ref="R58" si="91">SUM(R54:R57)</f>
+        <v>0</v>
+      </c>
+      <c r="S58" s="23">
+        <f t="shared" ref="S58" si="92">SUM(S54:S57)</f>
+        <v>0</v>
+      </c>
+      <c r="T58" s="23">
+        <f t="shared" ref="T58" si="93">SUM(T54:T57)</f>
         <v>3256</v>
       </c>
-      <c r="U58" s="26">
-        <f t="shared" ref="U58" si="75">SUM(U54:U57)</f>
+      <c r="U58" s="23">
+        <f t="shared" ref="U58" si="94">SUM(U54:U57)</f>
         <v>3096</v>
       </c>
-      <c r="V58" s="26">
-        <f t="shared" ref="V58" si="76">SUM(V54:V57)</f>
+      <c r="V58" s="23">
+        <f t="shared" ref="V58" si="95">SUM(V54:V57)</f>
         <v>3256</v>
       </c>
       <c r="W58" s="5"/>
@@ -4834,7 +4921,7 @@
       <c r="AF58" s="5"/>
       <c r="AG58" s="5"/>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>52</v>
       </c>
@@ -4880,7 +4967,7 @@
       <c r="AF59" s="5"/>
       <c r="AG59" s="5"/>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>8</v>
       </c>
@@ -4926,7 +5013,7 @@
       <c r="AF60" s="5"/>
       <c r="AG60" s="5"/>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>53</v>
       </c>
@@ -4972,7 +5059,7 @@
       <c r="AF61" s="5"/>
       <c r="AG61" s="5"/>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>45</v>
       </c>
@@ -5018,73 +5105,73 @@
       <c r="AF62" s="5"/>
       <c r="AG62" s="5"/>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B63" s="25" t="s">
+    <row r="63" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
         <v>54</v>
       </c>
-      <c r="C63" s="26">
+      <c r="C63" s="23">
         <f>SUM(C59:C62)</f>
         <v>5829</v>
       </c>
-      <c r="D63" s="26">
-        <f t="shared" ref="D63:J63" si="77">SUM(D59:D62)</f>
-        <v>0</v>
-      </c>
-      <c r="E63" s="26">
-        <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="F63" s="26">
-        <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="G63" s="26">
-        <f t="shared" si="77"/>
+      <c r="D63" s="23">
+        <f t="shared" ref="D63:J63" si="96">SUM(D59:D62)</f>
+        <v>0</v>
+      </c>
+      <c r="E63" s="23">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="F63" s="23">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="23">
+        <f t="shared" si="96"/>
         <v>5395</v>
       </c>
-      <c r="H63" s="26">
-        <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="I63" s="26">
-        <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="J63" s="26">
-        <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="K63" s="26"/>
-      <c r="L63" s="26"/>
-      <c r="M63" s="26"/>
-      <c r="N63" s="26"/>
-      <c r="O63" s="26"/>
-      <c r="P63" s="26">
-        <f t="shared" ref="P63" si="78">SUM(P59:P62)</f>
-        <v>0</v>
-      </c>
-      <c r="Q63" s="26">
-        <f t="shared" ref="Q63" si="79">SUM(Q59:Q62)</f>
-        <v>0</v>
-      </c>
-      <c r="R63" s="26">
-        <f t="shared" ref="R63" si="80">SUM(R59:R62)</f>
-        <v>0</v>
-      </c>
-      <c r="S63" s="26">
-        <f t="shared" ref="S63" si="81">SUM(S59:S62)</f>
-        <v>0</v>
-      </c>
-      <c r="T63" s="26">
-        <f t="shared" ref="T63" si="82">SUM(T59:T62)</f>
+      <c r="H63" s="23">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="23">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="23">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="K63" s="23"/>
+      <c r="L63" s="23"/>
+      <c r="M63" s="23"/>
+      <c r="N63" s="23"/>
+      <c r="O63" s="23"/>
+      <c r="P63" s="23">
+        <f t="shared" ref="P63" si="97">SUM(P59:P62)</f>
+        <v>0</v>
+      </c>
+      <c r="Q63" s="23">
+        <f t="shared" ref="Q63" si="98">SUM(Q59:Q62)</f>
+        <v>0</v>
+      </c>
+      <c r="R63" s="23">
+        <f t="shared" ref="R63" si="99">SUM(R59:R62)</f>
+        <v>0</v>
+      </c>
+      <c r="S63" s="23">
+        <f t="shared" ref="S63" si="100">SUM(S59:S62)</f>
+        <v>0</v>
+      </c>
+      <c r="T63" s="23">
+        <f t="shared" ref="T63" si="101">SUM(T59:T62)</f>
         <v>5897</v>
       </c>
-      <c r="U63" s="26">
-        <f t="shared" ref="U63" si="83">SUM(U59:U62)</f>
+      <c r="U63" s="23">
+        <f t="shared" ref="U63" si="102">SUM(U59:U62)</f>
         <v>5353</v>
       </c>
-      <c r="V63" s="26">
-        <f t="shared" ref="V63" si="84">SUM(V59:V62)</f>
+      <c r="V63" s="23">
+        <f t="shared" ref="V63" si="103">SUM(V59:V62)</f>
         <v>5365</v>
       </c>
       <c r="W63" s="5"/>
@@ -5099,40 +5186,40 @@
       <c r="AF63" s="5"/>
       <c r="AG63" s="5"/>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B64" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C64" s="24">
-        <f>C63+C58</f>
+        <f t="shared" ref="C64:J64" si="104">C63+C58</f>
         <v>8747</v>
       </c>
       <c r="D64" s="24">
-        <f>D63+D58</f>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="E64" s="24">
-        <f>E63+E58</f>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="F64" s="24">
-        <f>F63+F58</f>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="G64" s="24">
-        <f>G63+G58</f>
+        <f t="shared" si="104"/>
         <v>8201</v>
       </c>
       <c r="H64" s="24">
-        <f>H63+H58</f>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="I64" s="24">
-        <f>I63+I58</f>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="J64" s="24">
-        <f>J63+J58</f>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="K64" s="24"/>
@@ -5141,31 +5228,31 @@
       <c r="N64" s="23"/>
       <c r="O64" s="23"/>
       <c r="P64" s="24">
-        <f>P63+P58</f>
+        <f t="shared" ref="P64:V64" si="105">P63+P58</f>
         <v>0</v>
       </c>
       <c r="Q64" s="24">
-        <f>Q63+Q58</f>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="R64" s="24">
-        <f>R63+R58</f>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="S64" s="24">
-        <f>S63+S58</f>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="T64" s="24">
-        <f>T63+T58</f>
+        <f t="shared" si="105"/>
         <v>9153</v>
       </c>
       <c r="U64" s="24">
-        <f>U63+U58</f>
+        <f t="shared" si="105"/>
         <v>8449</v>
       </c>
       <c r="V64" s="24">
-        <f>V63+V58</f>
+        <f t="shared" si="105"/>
         <v>8621</v>
       </c>
       <c r="W64" s="5"/>
@@ -5365,72 +5452,72 @@
       <c r="AG68" s="5"/>
     </row>
     <row r="69" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B69" s="25" t="s">
+      <c r="B69" t="s">
         <v>60</v>
       </c>
-      <c r="C69" s="26">
+      <c r="C69" s="23">
         <f>SUM(C65:C68)</f>
         <v>2185</v>
       </c>
-      <c r="D69" s="26">
-        <f t="shared" ref="D69:J69" si="85">SUM(D65:D68)</f>
-        <v>0</v>
-      </c>
-      <c r="E69" s="26">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="F69" s="26">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="G69" s="26">
-        <f t="shared" si="85"/>
+      <c r="D69" s="23">
+        <f t="shared" ref="D69:J69" si="106">SUM(D65:D68)</f>
+        <v>0</v>
+      </c>
+      <c r="E69" s="23">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="F69" s="23">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="G69" s="23">
+        <f t="shared" si="106"/>
         <v>2707</v>
       </c>
-      <c r="H69" s="26">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="I69" s="26">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="J69" s="26">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="K69" s="26"/>
-      <c r="L69" s="26"/>
-      <c r="M69" s="26"/>
-      <c r="N69" s="26"/>
-      <c r="O69" s="26"/>
-      <c r="P69" s="26">
-        <f t="shared" ref="P69" si="86">SUM(P65:P68)</f>
-        <v>0</v>
-      </c>
-      <c r="Q69" s="26">
-        <f t="shared" ref="Q69" si="87">SUM(Q65:Q68)</f>
-        <v>0</v>
-      </c>
-      <c r="R69" s="26">
-        <f t="shared" ref="R69" si="88">SUM(R65:R68)</f>
-        <v>0</v>
-      </c>
-      <c r="S69" s="26">
-        <f t="shared" ref="S69" si="89">SUM(S65:S68)</f>
-        <v>0</v>
-      </c>
-      <c r="T69" s="26">
-        <f t="shared" ref="T69" si="90">SUM(T65:T68)</f>
+      <c r="H69" s="23">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="I69" s="23">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="J69" s="23">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="K69" s="23"/>
+      <c r="L69" s="23"/>
+      <c r="M69" s="23"/>
+      <c r="N69" s="23"/>
+      <c r="O69" s="23"/>
+      <c r="P69" s="23">
+        <f t="shared" ref="P69" si="107">SUM(P65:P68)</f>
+        <v>0</v>
+      </c>
+      <c r="Q69" s="23">
+        <f t="shared" ref="Q69" si="108">SUM(Q65:Q68)</f>
+        <v>0</v>
+      </c>
+      <c r="R69" s="23">
+        <f t="shared" ref="R69" si="109">SUM(R65:R68)</f>
+        <v>0</v>
+      </c>
+      <c r="S69" s="23">
+        <f t="shared" ref="S69" si="110">SUM(S65:S68)</f>
+        <v>0</v>
+      </c>
+      <c r="T69" s="23">
+        <f t="shared" ref="T69" si="111">SUM(T65:T68)</f>
         <v>2233</v>
       </c>
-      <c r="U69" s="26">
-        <f t="shared" ref="U69" si="91">SUM(U65:U68)</f>
+      <c r="U69" s="23">
+        <f t="shared" ref="U69" si="112">SUM(U65:U68)</f>
         <v>2595</v>
       </c>
-      <c r="V69" s="26">
-        <f t="shared" ref="V69" si="92">SUM(V65:V68)</f>
+      <c r="V69" s="23">
+        <f t="shared" ref="V69" si="113">SUM(V65:V68)</f>
         <v>3264</v>
       </c>
       <c r="W69" s="5"/>
@@ -5450,35 +5537,35 @@
         <v>61</v>
       </c>
       <c r="C70" s="24">
-        <f>C69+C64</f>
+        <f t="shared" ref="C70:J70" si="114">C69+C64</f>
         <v>10932</v>
       </c>
       <c r="D70" s="24">
-        <f>D69+D64</f>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="E70" s="24">
-        <f>E69+E64</f>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="F70" s="24">
-        <f>F69+F64</f>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="G70" s="24">
-        <f>G69+G64</f>
+        <f t="shared" si="114"/>
         <v>10908</v>
       </c>
       <c r="H70" s="24">
-        <f>H69+H64</f>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="I70" s="24">
-        <f>I69+I64</f>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="J70" s="24">
-        <f>J69+J64</f>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="K70" s="24"/>
@@ -5487,31 +5574,31 @@
       <c r="N70" s="23"/>
       <c r="O70" s="23"/>
       <c r="P70" s="24">
-        <f>P69+P64</f>
+        <f t="shared" ref="P70:V70" si="115">P69+P64</f>
         <v>0</v>
       </c>
       <c r="Q70" s="24">
-        <f>Q69+Q64</f>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="R70" s="24">
-        <f>R69+R64</f>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="S70" s="24">
-        <f>S69+S64</f>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="T70" s="24">
-        <f>T69+T64</f>
+        <f t="shared" si="115"/>
         <v>11386</v>
       </c>
       <c r="U70" s="24">
-        <f>U69+U64</f>
+        <f t="shared" si="115"/>
         <v>11044</v>
       </c>
       <c r="V70" s="24">
-        <f>V69+V64</f>
+        <f t="shared" si="115"/>
         <v>11885</v>
       </c>
       <c r="W70" s="5"/>
@@ -5564,35 +5651,35 @@
         <v>30</v>
       </c>
       <c r="C72" s="23">
-        <f>C24</f>
+        <f t="shared" ref="C72:J72" si="116">C24</f>
         <v>-18</v>
       </c>
       <c r="D72" s="23">
-        <f>D24</f>
+        <f t="shared" si="116"/>
         <v>117</v>
       </c>
       <c r="E72" s="23">
-        <f>E24</f>
+        <f t="shared" si="116"/>
         <v>218</v>
       </c>
       <c r="F72" s="23">
-        <f>F24</f>
+        <f t="shared" si="116"/>
         <v>185</v>
       </c>
       <c r="G72" s="23">
-        <f>G24</f>
+        <f t="shared" si="116"/>
         <v>158</v>
       </c>
       <c r="H72" s="23">
-        <f>H24</f>
+        <f t="shared" si="116"/>
         <v>206</v>
       </c>
       <c r="I72" s="23">
-        <f>I24</f>
+        <f t="shared" si="116"/>
         <v>274</v>
       </c>
       <c r="J72" s="23">
-        <f>J24</f>
+        <f t="shared" si="116"/>
         <v>206</v>
       </c>
       <c r="K72" s="23"/>
@@ -5601,31 +5688,31 @@
       <c r="N72" s="23"/>
       <c r="O72" s="23"/>
       <c r="P72" s="23">
-        <f>P24</f>
+        <f t="shared" ref="P72:V72" si="117">P24</f>
         <v>1003</v>
       </c>
       <c r="Q72" s="23">
-        <f>Q24</f>
+        <f t="shared" si="117"/>
         <v>351</v>
       </c>
       <c r="R72" s="23">
-        <f>R24</f>
+        <f t="shared" si="117"/>
         <v>-665</v>
       </c>
       <c r="S72" s="23">
-        <f>S24</f>
+        <f t="shared" si="117"/>
         <v>256</v>
       </c>
       <c r="T72" s="23">
-        <f>T24</f>
+        <f t="shared" si="117"/>
         <v>-202</v>
       </c>
       <c r="U72" s="23">
-        <f>U24</f>
+        <f t="shared" si="117"/>
         <v>502</v>
       </c>
       <c r="V72" s="23">
-        <f>V24</f>
+        <f t="shared" si="117"/>
         <v>844</v>
       </c>
       <c r="W72" s="5"/>
@@ -6165,31 +6252,31 @@
         <v>-113</v>
       </c>
       <c r="D86" s="23">
-        <f t="shared" ref="D86:J86" si="93">SUM(D79:D85)</f>
+        <f t="shared" ref="D86:J86" si="118">SUM(D79:D85)</f>
         <v>0</v>
       </c>
       <c r="E86" s="23">
-        <f t="shared" si="93"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="F86" s="23">
-        <f t="shared" si="93"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="G86" s="23">
-        <f t="shared" si="93"/>
+        <f t="shared" si="118"/>
         <v>-278</v>
       </c>
       <c r="H86" s="23">
-        <f t="shared" si="93"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="I86" s="23">
-        <f t="shared" si="93"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="J86" s="23">
-        <f t="shared" si="93"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="K86" s="23"/>
@@ -6221,35 +6308,35 @@
         <v>74</v>
       </c>
       <c r="C87" s="24">
-        <f t="shared" ref="C87:J87" si="94">SUM(C72:C77)+C86</f>
+        <f t="shared" ref="C87:J87" si="119">SUM(C72:C77)+C86</f>
         <v>15</v>
       </c>
       <c r="D87" s="24">
-        <f t="shared" si="94"/>
+        <f t="shared" si="119"/>
         <v>117</v>
       </c>
       <c r="E87" s="24">
-        <f t="shared" si="94"/>
+        <f t="shared" si="119"/>
         <v>218</v>
       </c>
       <c r="F87" s="24">
-        <f t="shared" si="94"/>
+        <f t="shared" si="119"/>
         <v>185</v>
       </c>
       <c r="G87" s="24">
-        <f t="shared" si="94"/>
+        <f t="shared" si="119"/>
         <v>30</v>
       </c>
       <c r="H87" s="24">
-        <f t="shared" si="94"/>
+        <f t="shared" si="119"/>
         <v>206</v>
       </c>
       <c r="I87" s="24">
-        <f t="shared" si="94"/>
+        <f t="shared" si="119"/>
         <v>274</v>
       </c>
       <c r="J87" s="24">
-        <f t="shared" si="94"/>
+        <f t="shared" si="119"/>
         <v>206</v>
       </c>
       <c r="K87" s="24"/>
@@ -6485,31 +6572,31 @@
         <v>-30</v>
       </c>
       <c r="D93" s="24">
-        <f t="shared" ref="D93:J93" si="95">SUM(D88:D92)</f>
+        <f t="shared" ref="D93:J93" si="120">SUM(D88:D92)</f>
         <v>0</v>
       </c>
       <c r="E93" s="24">
-        <f t="shared" si="95"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="F93" s="24">
-        <f t="shared" si="95"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="G93" s="24">
-        <f t="shared" si="95"/>
+        <f t="shared" si="120"/>
         <v>-291</v>
       </c>
       <c r="H93" s="24">
-        <f t="shared" si="95"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="I93" s="24">
-        <f t="shared" si="95"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="J93" s="24">
-        <f t="shared" si="95"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="K93" s="24"/>
@@ -6665,31 +6752,31 @@
         <v>-58</v>
       </c>
       <c r="D97" s="24">
-        <f t="shared" ref="D97:J97" si="96">SUM(D94:D96)</f>
+        <f t="shared" ref="D97:J97" si="121">SUM(D94:D96)</f>
         <v>0</v>
       </c>
       <c r="E97" s="24">
-        <f t="shared" si="96"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="F97" s="24">
-        <f t="shared" si="96"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="G97" s="24">
-        <f t="shared" si="96"/>
+        <f t="shared" si="121"/>
         <v>-77</v>
       </c>
       <c r="H97" s="24">
-        <f t="shared" si="96"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="I97" s="24">
-        <f t="shared" si="96"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="J97" s="24">
-        <f t="shared" si="96"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="K97" s="24"/>
@@ -6761,19 +6848,19 @@
         <v>86</v>
       </c>
       <c r="C99" s="24">
-        <f t="shared" ref="C99:F99" si="97">C97+C93+C87+C98</f>
+        <f t="shared" ref="C99:F99" si="122">C97+C93+C87+C98</f>
         <v>-75</v>
       </c>
       <c r="D99" s="24">
-        <f t="shared" si="97"/>
+        <f t="shared" si="122"/>
         <v>117</v>
       </c>
       <c r="E99" s="24">
-        <f t="shared" si="97"/>
+        <f t="shared" si="122"/>
         <v>218</v>
       </c>
       <c r="F99" s="24">
-        <f t="shared" si="97"/>
+        <f t="shared" si="122"/>
         <v>185</v>
       </c>
       <c r="G99" s="24">
@@ -6781,15 +6868,15 @@
         <v>-340</v>
       </c>
       <c r="H99" s="24">
-        <f t="shared" ref="H99:J99" si="98">H97+H93+H87+H98</f>
+        <f t="shared" ref="H99:J99" si="123">H97+H93+H87+H98</f>
         <v>206</v>
       </c>
       <c r="I99" s="24">
-        <f t="shared" si="98"/>
+        <f t="shared" si="123"/>
         <v>274</v>
       </c>
       <c r="J99" s="24">
-        <f t="shared" si="98"/>
+        <f t="shared" si="123"/>
         <v>206</v>
       </c>
       <c r="K99" s="24"/>

--- a/GAP.xlsx
+++ b/GAP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5725FC-7725-4BCC-82D4-C318E73F07C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9048D178-8492-4628-BC15-80510E4E632A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{45B8ACDC-CB3B-40F4-A3D2-AA5D93D3C1D7}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{45B8ACDC-CB3B-40F4-A3D2-AA5D93D3C1D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -512,13 +512,19 @@
     <numFmt numFmtId="167" formatCode="#,##0;\(#,##0\)"/>
     <numFmt numFmtId="168" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -700,46 +706,49 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1078,7 +1087,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C29C52-BB44-40A0-B598-95160E4D3AF4}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1105,7 +1116,7 @@
         <v>3</v>
       </c>
       <c r="J2" s="2">
-        <v>22.05</v>
+        <v>27.09</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -1113,10 +1124,10 @@
         <v>4</v>
       </c>
       <c r="J3" s="3">
-        <v>371.04722600000002</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>116</v>
+        <v>371.92174</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -1131,7 +1142,7 @@
       </c>
       <c r="J4" s="6">
         <f>J3*J2</f>
-        <v>8181.5913333000008</v>
+        <v>10075.3599366</v>
       </c>
       <c r="K4" s="4"/>
     </row>
@@ -1143,11 +1154,11 @@
         <v>7</v>
       </c>
       <c r="J5" s="6">
-        <f>2194+238</f>
-        <v>2432</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>116</v>
+        <f>2262+255</f>
+        <v>2517</v>
+      </c>
+      <c r="K5" s="32" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -1170,8 +1181,8 @@
       <c r="J6" s="6">
         <v>1491</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>116</v>
+      <c r="K6" s="32" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -1193,7 +1204,7 @@
       </c>
       <c r="J7" s="6">
         <f>J4+J6-J5</f>
-        <v>7240.5913333000008</v>
+        <v>9049.3599365999999</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -1230,7 +1241,7 @@
       </c>
       <c r="J9" s="18">
         <f>+J4/844</f>
-        <v>9.6938285939573472</v>
+        <v>11.937630256635071</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -1348,10 +1359,10 @@
   <dimension ref="A1:AH210"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1471,7 +1482,9 @@
       <c r="L3" s="6">
         <v>2440</v>
       </c>
-      <c r="M3" s="6"/>
+      <c r="M3" s="6">
+        <v>2497</v>
+      </c>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6">
@@ -1539,7 +1552,9 @@
       <c r="L4" s="6">
         <v>1285</v>
       </c>
-      <c r="M4" s="6"/>
+      <c r="M4" s="6">
+        <v>1000</v>
+      </c>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6">
@@ -1619,7 +1634,7 @@
       </c>
       <c r="M5" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3497</v>
       </c>
       <c r="N5" s="24">
         <f t="shared" si="0"/>
@@ -1708,9 +1723,9 @@
         <f t="shared" si="8"/>
         <v>0.65503355704697985</v>
       </c>
-      <c r="M6" s="25" t="e">
+      <c r="M6" s="25">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>0.67715184443808984</v>
       </c>
       <c r="N6" s="25" t="e">
         <f t="shared" si="8"/>
@@ -1806,7 +1821,9 @@
       <c r="L8" s="6">
         <v>2150</v>
       </c>
-      <c r="M8" s="6"/>
+      <c r="M8" s="6">
+        <v>2253</v>
+      </c>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -1868,7 +1885,9 @@
       <c r="L9" s="6">
         <v>772</v>
       </c>
-      <c r="M9" s="6"/>
+      <c r="M9" s="6">
+        <v>951</v>
+      </c>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -1930,7 +1949,9 @@
       <c r="L10" s="6">
         <v>475</v>
       </c>
-      <c r="M10" s="6"/>
+      <c r="M10" s="6">
+        <v>464</v>
+      </c>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
@@ -1992,7 +2013,9 @@
       <c r="L11" s="6">
         <v>300</v>
       </c>
-      <c r="M11" s="6"/>
+      <c r="M11" s="6">
+        <v>257</v>
+      </c>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -2054,7 +2077,9 @@
       <c r="L12" s="6">
         <v>28</v>
       </c>
-      <c r="M12" s="6"/>
+      <c r="M12" s="6">
+        <v>17</v>
+      </c>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
@@ -2116,7 +2141,9 @@
       <c r="L13" s="6">
         <v>2440</v>
       </c>
-      <c r="M13" s="6"/>
+      <c r="M13" s="6">
+        <v>2368</v>
+      </c>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6">
@@ -2189,7 +2216,9 @@
       <c r="L14" s="6">
         <v>1285</v>
       </c>
-      <c r="M14" s="6"/>
+      <c r="M14" s="6">
+        <v>1574</v>
+      </c>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6">
@@ -2263,7 +2292,9 @@
       <c r="L15" s="24">
         <v>3725</v>
       </c>
-      <c r="M15" s="24"/>
+      <c r="M15" s="24">
+        <v>3942</v>
+      </c>
       <c r="N15" s="24"/>
       <c r="O15" s="24"/>
       <c r="P15" s="24">
@@ -2332,7 +2363,9 @@
       <c r="L16" s="6">
         <v>2189</v>
       </c>
-      <c r="M16" s="6"/>
+      <c r="M16" s="6">
+        <v>2272</v>
+      </c>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="6">
@@ -2374,7 +2407,7 @@
         <v>1214</v>
       </c>
       <c r="D17" s="6">
-        <f t="shared" ref="D17:L17" si="12">D15-D16</f>
+        <f t="shared" ref="D17:M17" si="12">D15-D16</f>
         <v>1333</v>
       </c>
       <c r="E17" s="6">
@@ -2409,7 +2442,10 @@
         <f t="shared" si="12"/>
         <v>1536</v>
       </c>
-      <c r="M17" s="6"/>
+      <c r="M17" s="6">
+        <f t="shared" si="12"/>
+        <v>1670</v>
+      </c>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="6">
@@ -2485,7 +2521,9 @@
       <c r="L18" s="6">
         <v>1244</v>
       </c>
-      <c r="M18" s="6"/>
+      <c r="M18" s="6">
+        <v>1336</v>
+      </c>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6">
@@ -2543,7 +2581,7 @@
         <v>205</v>
       </c>
       <c r="H19" s="6">
-        <f t="shared" ref="H19:L19" si="20">H17-H18</f>
+        <f t="shared" ref="H19:M19" si="20">H17-H18</f>
         <v>293</v>
       </c>
       <c r="I19" s="6">
@@ -2562,7 +2600,10 @@
         <f t="shared" si="20"/>
         <v>292</v>
       </c>
-      <c r="M19" s="6"/>
+      <c r="M19" s="6">
+        <f t="shared" si="20"/>
+        <v>334</v>
+      </c>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6">
@@ -2638,7 +2679,9 @@
       <c r="L20" s="6">
         <v>23</v>
       </c>
-      <c r="M20" s="6"/>
+      <c r="M20" s="6">
+        <v>23</v>
+      </c>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6">
@@ -2709,7 +2752,9 @@
       <c r="L21" s="6">
         <v>27</v>
       </c>
-      <c r="M21" s="6"/>
+      <c r="M21" s="6">
+        <v>26</v>
+      </c>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6">
@@ -2767,7 +2812,7 @@
         <v>208</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" ref="H22:L22" si="30">H19-H20+H21</f>
+        <f t="shared" ref="H22:M22" si="30">H19-H20+H21</f>
         <v>296</v>
       </c>
       <c r="I22" s="6">
@@ -2786,7 +2831,10 @@
         <f t="shared" si="30"/>
         <v>296</v>
       </c>
-      <c r="M22" s="6"/>
+      <c r="M22" s="6">
+        <f t="shared" si="30"/>
+        <v>337</v>
+      </c>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="6">
@@ -2862,7 +2910,9 @@
       <c r="L23" s="6">
         <v>80</v>
       </c>
-      <c r="M23" s="6"/>
+      <c r="M23" s="6">
+        <v>101</v>
+      </c>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
       <c r="P23" s="6">
@@ -2904,7 +2954,7 @@
         <v>-18</v>
       </c>
       <c r="D24" s="6">
-        <f t="shared" ref="D24:L24" si="36">D22-D23</f>
+        <f t="shared" ref="D24:M24" si="36">D22-D23</f>
         <v>117</v>
       </c>
       <c r="E24" s="6">
@@ -2939,7 +2989,10 @@
         <f t="shared" si="36"/>
         <v>216</v>
       </c>
-      <c r="M24" s="6"/>
+      <c r="M24" s="6">
+        <f t="shared" si="36"/>
+        <v>236</v>
+      </c>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
       <c r="P24" s="6">
@@ -3031,6 +3084,10 @@
         <f>+L24/L27</f>
         <v>0.579088471849866</v>
       </c>
+      <c r="M26" s="25">
+        <f>+M24/M27</f>
+        <v>0.63440860215053763</v>
+      </c>
       <c r="P26" s="25">
         <f t="shared" ref="P26:V26" si="43">P24/P27</f>
         <v>2.5850515463917527</v>
@@ -3095,7 +3152,9 @@
       <c r="L27" s="6">
         <v>373</v>
       </c>
-      <c r="M27" s="6"/>
+      <c r="M27" s="6">
+        <v>372</v>
+      </c>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
       <c r="P27" s="6">
@@ -3158,7 +3217,7 @@
         <v>-2.0785219399538146E-2</v>
       </c>
       <c r="J29" s="28">
-        <f t="shared" ref="J29:L30" si="45">+J3/F3-1</f>
+        <f t="shared" ref="J29:M30" si="45">+J3/F3-1</f>
         <v>-2.1857923497267784E-2</v>
       </c>
       <c r="K29" s="28">
@@ -3169,7 +3228,10 @@
         <f t="shared" si="45"/>
         <v>-3.9748130657221603E-2</v>
       </c>
-      <c r="M29" s="27"/>
+      <c r="M29" s="28">
+        <f t="shared" si="45"/>
+        <v>-1.8474842767295607E-2</v>
+      </c>
       <c r="N29" s="27"/>
       <c r="O29" s="27"/>
       <c r="P29" s="27"/>
@@ -3241,7 +3303,10 @@
         <f t="shared" si="45"/>
         <v>0.2512171372930867</v>
       </c>
-      <c r="M30" s="27"/>
+      <c r="M30" s="28">
+        <f t="shared" si="45"/>
+        <v>-5.5712936732766782E-2</v>
+      </c>
       <c r="N30" s="27"/>
       <c r="O30" s="27"/>
       <c r="P30" s="27"/>
@@ -3302,7 +3367,7 @@
         <v>1.1288805268109048E-2</v>
       </c>
       <c r="J31" s="28">
-        <f t="shared" ref="J31:L33" si="51">+J8/F8-1</f>
+        <f t="shared" ref="J31:M33" si="51">+J8/F8-1</f>
         <v>-3.321678321678323E-2</v>
       </c>
       <c r="K31" s="28">
@@ -3313,7 +3378,10 @@
         <f t="shared" si="51"/>
         <v>1.2717852096090443E-2</v>
       </c>
-      <c r="M31" s="27"/>
+      <c r="M31" s="28">
+        <f t="shared" si="51"/>
+        <v>4.7906976744185981E-2</v>
+      </c>
       <c r="N31" s="27"/>
       <c r="O31" s="27"/>
       <c r="P31" s="27"/>
@@ -3385,7 +3453,10 @@
         <f t="shared" si="51"/>
         <v>7.8328981723236879E-3</v>
       </c>
-      <c r="M32" s="27"/>
+      <c r="M32" s="28">
+        <f t="shared" si="51"/>
+        <v>5.784204671857629E-2</v>
+      </c>
       <c r="N32" s="27"/>
       <c r="O32" s="27"/>
       <c r="P32" s="27"/>
@@ -3457,7 +3528,10 @@
         <f t="shared" si="51"/>
         <v>-8.3507306889353261E-3</v>
       </c>
-      <c r="M33" s="27"/>
+      <c r="M33" s="28">
+        <f t="shared" si="51"/>
+        <v>-1.0660980810234588E-2</v>
+      </c>
       <c r="N33" s="27"/>
       <c r="O33" s="27"/>
       <c r="P33" s="27"/>
@@ -3529,7 +3603,10 @@
         <f>+L11/H11-1</f>
         <v>-0.1124260355029586</v>
       </c>
-      <c r="M34" s="27"/>
+      <c r="M34" s="28">
+        <f>+M11/I11-1</f>
+        <v>-0.11379310344827587</v>
+      </c>
       <c r="N34" s="27"/>
       <c r="O34" s="27"/>
       <c r="P34" s="27"/>
@@ -3590,7 +3667,7 @@
         <v>-1.8018018018018056E-2</v>
       </c>
       <c r="J35" s="28">
-        <f t="shared" ref="J35:L35" si="58">+J13/F13-1</f>
+        <f t="shared" ref="J35:M35" si="58">+J13/F13-1</f>
         <v>-4.4271844660194182E-2</v>
       </c>
       <c r="K35" s="28">
@@ -3601,7 +3678,10 @@
         <f t="shared" si="58"/>
         <v>-1.4539579967689842E-2</v>
       </c>
-      <c r="M35" s="27"/>
+      <c r="M35" s="28">
+        <f t="shared" si="58"/>
+        <v>3.4512887723896934E-2</v>
+      </c>
       <c r="N35" s="27"/>
       <c r="O35" s="27"/>
       <c r="P35" s="27"/>
@@ -3673,7 +3753,10 @@
         <f>+L14/H14-1</f>
         <v>4.9836601307189587E-2</v>
       </c>
-      <c r="M36" s="27"/>
+      <c r="M36" s="28">
+        <f>+M14/I14-1</f>
+        <v>2.2077922077922141E-2</v>
+      </c>
       <c r="N36" s="27"/>
       <c r="O36" s="27"/>
       <c r="P36" s="27"/>
@@ -3722,7 +3805,7 @@
       <c r="E37" s="29"/>
       <c r="F37" s="29"/>
       <c r="G37" s="30">
-        <f t="shared" ref="G37:L37" si="60">G15/C15-1</f>
+        <f t="shared" ref="G37:M37" si="60">G15/C15-1</f>
         <v>3.4188034188034289E-2</v>
       </c>
       <c r="H37" s="30">
@@ -3745,7 +3828,10 @@
         <f t="shared" si="60"/>
         <v>1.3440860215054862E-3</v>
       </c>
-      <c r="M37" s="30"/>
+      <c r="M37" s="30">
+        <f t="shared" si="60"/>
+        <v>2.9511621833376855E-2</v>
+      </c>
       <c r="N37" s="29"/>
       <c r="O37" s="29"/>
       <c r="P37" s="29"/>
@@ -3829,32 +3915,35 @@
         <f t="shared" si="62"/>
         <v>0.41234899328859059</v>
       </c>
-      <c r="M38" s="28"/>
+      <c r="M38" s="28">
+        <f t="shared" ref="M38" si="63">M17/M15</f>
+        <v>0.42364282090309485</v>
+      </c>
       <c r="N38" s="27"/>
       <c r="O38" s="27"/>
       <c r="P38" s="27"/>
       <c r="Q38" s="28">
-        <f t="shared" ref="Q38:V38" si="63">Q17/Q15</f>
+        <f t="shared" ref="Q38:V38" si="64">Q17/Q15</f>
         <v>0.37435146188121832</v>
       </c>
       <c r="R38" s="28">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0.34094202898550724</v>
       </c>
       <c r="S38" s="28">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0.39814037192561486</v>
       </c>
       <c r="T38" s="28">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0.34317366803278687</v>
       </c>
       <c r="U38" s="28">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0.38787023977433005</v>
       </c>
       <c r="V38" s="28">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0.41276680365902163</v>
       </c>
       <c r="W38" s="27"/>
@@ -3874,71 +3963,74 @@
         <v>35</v>
       </c>
       <c r="C39" s="28">
-        <f t="shared" ref="C39:J39" si="64">C19/C15</f>
+        <f t="shared" ref="C39:J39" si="65">C19/C15</f>
         <v>-3.0525030525030525E-3</v>
       </c>
       <c r="D39" s="28">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>2.987598647125141E-2</v>
       </c>
       <c r="E39" s="28">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>6.636580833554552E-2</v>
       </c>
       <c r="F39" s="28">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>4.9790600279199626E-2</v>
       </c>
       <c r="G39" s="28">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>6.0507674144037779E-2</v>
       </c>
       <c r="H39" s="28">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>7.8763440860215056E-2</v>
       </c>
       <c r="I39" s="28">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>9.2713502219900754E-2</v>
       </c>
       <c r="J39" s="28">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>6.2424680645938778E-2</v>
       </c>
       <c r="K39" s="28">
-        <f t="shared" ref="K39:L39" si="65">K19/K15</f>
+        <f t="shared" ref="K39:L39" si="66">K19/K15</f>
         <v>7.5079410915391276E-2</v>
       </c>
       <c r="L39" s="28">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>7.8389261744966438E-2</v>
       </c>
-      <c r="M39" s="28"/>
+      <c r="M39" s="28">
+        <f t="shared" ref="M39" si="67">M19/M15</f>
+        <v>8.472856418061897E-2</v>
+      </c>
       <c r="N39" s="27"/>
       <c r="O39" s="27"/>
       <c r="P39" s="27"/>
       <c r="Q39" s="28">
-        <f t="shared" ref="Q39:V39" si="66">Q19/Q15</f>
+        <f t="shared" ref="Q39:V39" si="68">Q19/Q15</f>
         <v>3.5036318134651773E-2</v>
       </c>
       <c r="R39" s="28">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>-6.246376811594203E-2</v>
       </c>
       <c r="S39" s="28">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>4.8590281943611278E-2</v>
       </c>
       <c r="T39" s="28">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>-4.4185450819672128E-3</v>
       </c>
       <c r="U39" s="28">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>3.7611659614480486E-2</v>
       </c>
       <c r="V39" s="28">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>7.3710725175659547E-2</v>
       </c>
       <c r="W39" s="27"/>
@@ -3959,67 +4051,70 @@
       </c>
       <c r="C40" s="28"/>
       <c r="D40" s="28">
-        <f t="shared" ref="D40:J40" si="67">(D19-C19)/(D17-C17)</f>
+        <f t="shared" ref="D40:J40" si="69">(D19-C19)/(D17-C17)</f>
         <v>0.97478991596638653</v>
       </c>
       <c r="E40" s="28">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0.64573991031390132</v>
       </c>
       <c r="F40" s="28">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>-0.31034482758620691</v>
       </c>
       <c r="G40" s="28">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>3.272727272727273E-2</v>
       </c>
       <c r="H40" s="28">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0.4731182795698925</v>
       </c>
       <c r="I40" s="28">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1.1923076923076923</v>
       </c>
       <c r="J40" s="28">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>4.1739130434782608</v>
       </c>
       <c r="K40" s="28">
-        <f t="shared" ref="K40:L40" si="68">(K19-J19)/(K17-J17)</f>
+        <f t="shared" ref="K40:M40" si="70">(K19-J19)/(K17-J17)</f>
         <v>-6.0975609756097563E-3</v>
       </c>
       <c r="L40" s="28">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0.36363636363636365</v>
       </c>
-      <c r="M40" s="28"/>
+      <c r="M40" s="28">
+        <f t="shared" si="70"/>
+        <v>0.31343283582089554</v>
+      </c>
       <c r="N40" s="27"/>
       <c r="O40" s="27"/>
       <c r="P40" s="27"/>
       <c r="Q40" s="28">
-        <f t="shared" ref="Q40:V40" si="69">(Q19-P19)/(Q15-P15)</f>
+        <f t="shared" ref="Q40:V40" si="71">(Q19-P19)/(Q15-P15)</f>
         <v>4</v>
       </c>
       <c r="R40" s="28">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>0.55594270228416565</v>
       </c>
       <c r="S40" s="28">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>0.58257839721254356</v>
       </c>
       <c r="T40" s="28">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>0.83396584440227706</v>
       </c>
       <c r="U40" s="28">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>-0.86519944979367258</v>
       </c>
       <c r="V40" s="28">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>2.8020304568527918</v>
       </c>
       <c r="W40" s="27"/>
@@ -4039,71 +4134,74 @@
         <v>36</v>
       </c>
       <c r="C41" s="28">
-        <f t="shared" ref="C41:J41" si="70">C23/C22</f>
+        <f t="shared" ref="C41:J41" si="72">C23/C22</f>
         <v>0.1</v>
       </c>
       <c r="D41" s="28">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>-8.3333333333333329E-2</v>
       </c>
       <c r="E41" s="28">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>0.128</v>
       </c>
       <c r="F41" s="28">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>0.15137614678899083</v>
       </c>
       <c r="G41" s="28">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>0.24038461538461539</v>
       </c>
       <c r="H41" s="28">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>0.30405405405405406</v>
       </c>
       <c r="I41" s="28">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>0.24099722991689751</v>
       </c>
       <c r="J41" s="28">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>0.24264705882352941</v>
       </c>
       <c r="K41" s="28">
-        <f t="shared" ref="K41:L41" si="71">K23/K22</f>
+        <f t="shared" ref="K41:L41" si="73">K23/K22</f>
         <v>0.26615969581749049</v>
       </c>
       <c r="L41" s="28">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>0.27027027027027029</v>
       </c>
-      <c r="M41" s="28"/>
+      <c r="M41" s="28">
+        <f t="shared" ref="M41" si="74">M23/M22</f>
+        <v>0.29970326409495551</v>
+      </c>
       <c r="N41" s="27"/>
       <c r="O41" s="27"/>
       <c r="P41" s="27"/>
       <c r="Q41" s="28">
-        <f t="shared" ref="Q41:V41" si="72">Q23/Q22</f>
+        <f t="shared" ref="Q41:V41" si="75">Q23/Q22</f>
         <v>0.33522727272727271</v>
       </c>
       <c r="R41" s="28">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.39655172413793105</v>
       </c>
       <c r="S41" s="28">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.20743034055727555</v>
       </c>
       <c r="T41" s="28">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>-0.45323741007194246</v>
       </c>
       <c r="U41" s="28">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>9.7122302158273388E-2</v>
       </c>
       <c r="V41" s="28">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.25769569041336854</v>
       </c>
       <c r="W41" s="27"/>
@@ -4379,31 +4477,31 @@
         <v>4283</v>
       </c>
       <c r="D48" s="6">
-        <f t="shared" ref="D48:J48" si="73">SUM(D44:D47)</f>
+        <f t="shared" ref="D48:J48" si="76">SUM(D44:D47)</f>
         <v>0</v>
       </c>
       <c r="E48" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="F48" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>1902</v>
       </c>
       <c r="G48" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>4197</v>
       </c>
       <c r="H48" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="I48" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="J48" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="K48" s="6"/>
@@ -4412,31 +4510,31 @@
       <c r="N48" s="6"/>
       <c r="O48" s="6"/>
       <c r="P48" s="6">
-        <f t="shared" ref="P48" si="74">SUM(P44:P47)</f>
+        <f t="shared" ref="P48" si="77">SUM(P44:P47)</f>
         <v>0</v>
       </c>
       <c r="Q48" s="6">
-        <f t="shared" ref="Q48" si="75">SUM(Q44:Q47)</f>
+        <f t="shared" ref="Q48" si="78">SUM(Q44:Q47)</f>
         <v>0</v>
       </c>
       <c r="R48" s="6">
-        <f t="shared" ref="R48" si="76">SUM(R44:R47)</f>
+        <f t="shared" ref="R48" si="79">SUM(R44:R47)</f>
         <v>0</v>
       </c>
       <c r="S48" s="6">
-        <f t="shared" ref="S48" si="77">SUM(S44:S47)</f>
+        <f t="shared" ref="S48" si="80">SUM(S44:S47)</f>
         <v>0</v>
       </c>
       <c r="T48" s="6">
-        <f t="shared" ref="T48" si="78">SUM(T44:T47)</f>
+        <f t="shared" ref="T48" si="81">SUM(T44:T47)</f>
         <v>4617</v>
       </c>
       <c r="U48" s="6">
-        <f t="shared" ref="U48:V48" si="79">SUM(U44:U47)</f>
+        <f t="shared" ref="U48:V48" si="82">SUM(U44:U47)</f>
         <v>4395</v>
       </c>
       <c r="V48" s="6">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>5203</v>
       </c>
       <c r="W48" s="27"/>
@@ -4598,31 +4696,31 @@
         <v>6649</v>
       </c>
       <c r="D52" s="6">
-        <f t="shared" ref="D52:J52" si="80">SUM(D49:D51)</f>
+        <f t="shared" ref="D52:J52" si="83">SUM(D49:D51)</f>
         <v>0</v>
       </c>
       <c r="E52" s="6">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="F52" s="6">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="G52" s="6">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>6711</v>
       </c>
       <c r="H52" s="6">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="I52" s="6">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="J52" s="6">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="K52" s="6"/>
@@ -4631,31 +4729,31 @@
       <c r="N52" s="6"/>
       <c r="O52" s="6"/>
       <c r="P52" s="6">
-        <f t="shared" ref="P52" si="81">SUM(P49:P51)</f>
+        <f t="shared" ref="P52" si="84">SUM(P49:P51)</f>
         <v>0</v>
       </c>
       <c r="Q52" s="6">
-        <f t="shared" ref="Q52" si="82">SUM(Q49:Q51)</f>
+        <f t="shared" ref="Q52" si="85">SUM(Q49:Q51)</f>
         <v>0</v>
       </c>
       <c r="R52" s="6">
-        <f t="shared" ref="R52" si="83">SUM(R49:R51)</f>
+        <f t="shared" ref="R52" si="86">SUM(R49:R51)</f>
         <v>0</v>
       </c>
       <c r="S52" s="6">
-        <f t="shared" ref="S52" si="84">SUM(S49:S51)</f>
+        <f t="shared" ref="S52" si="87">SUM(S49:S51)</f>
         <v>0</v>
       </c>
       <c r="T52" s="6">
-        <f t="shared" ref="T52" si="85">SUM(T49:T51)</f>
+        <f t="shared" ref="T52" si="88">SUM(T49:T51)</f>
         <v>6769</v>
       </c>
       <c r="U52" s="6">
-        <f t="shared" ref="U52" si="86">SUM(U49:U51)</f>
+        <f t="shared" ref="U52" si="89">SUM(U49:U51)</f>
         <v>6649</v>
       </c>
       <c r="V52" s="6">
-        <f t="shared" ref="V52" si="87">SUM(V49:V51)</f>
+        <f t="shared" ref="V52" si="90">SUM(V49:V51)</f>
         <v>6682</v>
       </c>
       <c r="W52" s="27"/>
@@ -4675,35 +4773,35 @@
         <v>47</v>
       </c>
       <c r="C53" s="24">
-        <f t="shared" ref="C53:J53" si="88">C52+C48</f>
+        <f t="shared" ref="C53:J53" si="91">C52+C48</f>
         <v>10932</v>
       </c>
       <c r="D53" s="24">
-        <f t="shared" si="88"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="E53" s="24">
-        <f t="shared" si="88"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="F53" s="24">
-        <f t="shared" si="88"/>
+        <f t="shared" si="91"/>
         <v>1902</v>
       </c>
       <c r="G53" s="24">
-        <f t="shared" si="88"/>
+        <f t="shared" si="91"/>
         <v>10908</v>
       </c>
       <c r="H53" s="24">
-        <f t="shared" si="88"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="I53" s="24">
-        <f t="shared" si="88"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="J53" s="24">
-        <f t="shared" si="88"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="K53" s="24"/>
@@ -4712,31 +4810,31 @@
       <c r="N53" s="6"/>
       <c r="O53" s="6"/>
       <c r="P53" s="24">
-        <f t="shared" ref="P53:V53" si="89">P52+P48</f>
+        <f t="shared" ref="P53:V53" si="92">P52+P48</f>
         <v>0</v>
       </c>
       <c r="Q53" s="24">
-        <f t="shared" si="89"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="R53" s="24">
-        <f t="shared" si="89"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="S53" s="24">
-        <f t="shared" si="89"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="T53" s="24">
-        <f t="shared" si="89"/>
+        <f t="shared" si="92"/>
         <v>11386</v>
       </c>
       <c r="U53" s="24">
-        <f t="shared" si="89"/>
+        <f t="shared" si="92"/>
         <v>11044</v>
       </c>
       <c r="V53" s="24">
-        <f t="shared" si="89"/>
+        <f t="shared" si="92"/>
         <v>11885</v>
       </c>
       <c r="W53" s="27"/>
@@ -4944,31 +5042,31 @@
         <v>2918</v>
       </c>
       <c r="D58" s="6">
-        <f t="shared" ref="D58:J58" si="90">SUM(D54:D57)</f>
+        <f t="shared" ref="D58:J58" si="93">SUM(D54:D57)</f>
         <v>0</v>
       </c>
       <c r="E58" s="6">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="F58" s="6">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="G58" s="6">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>2806</v>
       </c>
       <c r="H58" s="6">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="I58" s="6">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="J58" s="6">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="K58" s="6"/>
@@ -4977,31 +5075,31 @@
       <c r="N58" s="6"/>
       <c r="O58" s="6"/>
       <c r="P58" s="6">
-        <f t="shared" ref="P58" si="91">SUM(P54:P57)</f>
+        <f t="shared" ref="P58" si="94">SUM(P54:P57)</f>
         <v>0</v>
       </c>
       <c r="Q58" s="6">
-        <f t="shared" ref="Q58" si="92">SUM(Q54:Q57)</f>
+        <f t="shared" ref="Q58" si="95">SUM(Q54:Q57)</f>
         <v>0</v>
       </c>
       <c r="R58" s="6">
-        <f t="shared" ref="R58" si="93">SUM(R54:R57)</f>
+        <f t="shared" ref="R58" si="96">SUM(R54:R57)</f>
         <v>0</v>
       </c>
       <c r="S58" s="6">
-        <f t="shared" ref="S58" si="94">SUM(S54:S57)</f>
+        <f t="shared" ref="S58" si="97">SUM(S54:S57)</f>
         <v>0</v>
       </c>
       <c r="T58" s="6">
-        <f t="shared" ref="T58" si="95">SUM(T54:T57)</f>
+        <f t="shared" ref="T58" si="98">SUM(T54:T57)</f>
         <v>3256</v>
       </c>
       <c r="U58" s="6">
-        <f t="shared" ref="U58" si="96">SUM(U54:U57)</f>
+        <f t="shared" ref="U58" si="99">SUM(U54:U57)</f>
         <v>3096</v>
       </c>
       <c r="V58" s="6">
-        <f t="shared" ref="V58" si="97">SUM(V54:V57)</f>
+        <f t="shared" ref="V58" si="100">SUM(V54:V57)</f>
         <v>3256</v>
       </c>
       <c r="W58" s="27"/>
@@ -5209,31 +5307,31 @@
         <v>5829</v>
       </c>
       <c r="D63" s="6">
-        <f t="shared" ref="D63:J63" si="98">SUM(D59:D62)</f>
+        <f t="shared" ref="D63:J63" si="101">SUM(D59:D62)</f>
         <v>0</v>
       </c>
       <c r="E63" s="6">
-        <f t="shared" si="98"/>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="F63" s="6">
-        <f t="shared" si="98"/>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="G63" s="6">
-        <f t="shared" si="98"/>
+        <f t="shared" si="101"/>
         <v>5395</v>
       </c>
       <c r="H63" s="6">
-        <f t="shared" si="98"/>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="I63" s="6">
-        <f t="shared" si="98"/>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="J63" s="6">
-        <f t="shared" si="98"/>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="K63" s="6"/>
@@ -5242,31 +5340,31 @@
       <c r="N63" s="6"/>
       <c r="O63" s="6"/>
       <c r="P63" s="6">
-        <f t="shared" ref="P63" si="99">SUM(P59:P62)</f>
+        <f t="shared" ref="P63" si="102">SUM(P59:P62)</f>
         <v>0</v>
       </c>
       <c r="Q63" s="6">
-        <f t="shared" ref="Q63" si="100">SUM(Q59:Q62)</f>
+        <f t="shared" ref="Q63" si="103">SUM(Q59:Q62)</f>
         <v>0</v>
       </c>
       <c r="R63" s="6">
-        <f t="shared" ref="R63" si="101">SUM(R59:R62)</f>
+        <f t="shared" ref="R63" si="104">SUM(R59:R62)</f>
         <v>0</v>
       </c>
       <c r="S63" s="6">
-        <f t="shared" ref="S63" si="102">SUM(S59:S62)</f>
+        <f t="shared" ref="S63" si="105">SUM(S59:S62)</f>
         <v>0</v>
       </c>
       <c r="T63" s="6">
-        <f t="shared" ref="T63" si="103">SUM(T59:T62)</f>
+        <f t="shared" ref="T63" si="106">SUM(T59:T62)</f>
         <v>5897</v>
       </c>
       <c r="U63" s="6">
-        <f t="shared" ref="U63" si="104">SUM(U59:U62)</f>
+        <f t="shared" ref="U63" si="107">SUM(U59:U62)</f>
         <v>5353</v>
       </c>
       <c r="V63" s="6">
-        <f t="shared" ref="V63" si="105">SUM(V59:V62)</f>
+        <f t="shared" ref="V63" si="108">SUM(V59:V62)</f>
         <v>5365</v>
       </c>
       <c r="W63" s="27"/>
@@ -5286,35 +5384,35 @@
         <v>55</v>
       </c>
       <c r="C64" s="24">
-        <f t="shared" ref="C64:J64" si="106">C63+C58</f>
+        <f t="shared" ref="C64:J64" si="109">C63+C58</f>
         <v>8747</v>
       </c>
       <c r="D64" s="24">
-        <f t="shared" si="106"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="E64" s="24">
-        <f t="shared" si="106"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="F64" s="24">
-        <f t="shared" si="106"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="G64" s="24">
-        <f t="shared" si="106"/>
+        <f t="shared" si="109"/>
         <v>8201</v>
       </c>
       <c r="H64" s="24">
-        <f t="shared" si="106"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="I64" s="24">
-        <f t="shared" si="106"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="J64" s="24">
-        <f t="shared" si="106"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="K64" s="24"/>
@@ -5323,31 +5421,31 @@
       <c r="N64" s="6"/>
       <c r="O64" s="6"/>
       <c r="P64" s="24">
-        <f t="shared" ref="P64:V64" si="107">P63+P58</f>
+        <f t="shared" ref="P64:V64" si="110">P63+P58</f>
         <v>0</v>
       </c>
       <c r="Q64" s="24">
-        <f t="shared" si="107"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="R64" s="24">
-        <f t="shared" si="107"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="S64" s="24">
-        <f t="shared" si="107"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="T64" s="24">
-        <f t="shared" si="107"/>
+        <f t="shared" si="110"/>
         <v>9153</v>
       </c>
       <c r="U64" s="24">
-        <f t="shared" si="107"/>
+        <f t="shared" si="110"/>
         <v>8449</v>
       </c>
       <c r="V64" s="24">
-        <f t="shared" si="107"/>
+        <f t="shared" si="110"/>
         <v>8621</v>
       </c>
       <c r="W64" s="27"/>
@@ -5555,31 +5653,31 @@
         <v>2185</v>
       </c>
       <c r="D69" s="6">
-        <f t="shared" ref="D69:J69" si="108">SUM(D65:D68)</f>
+        <f t="shared" ref="D69:J69" si="111">SUM(D65:D68)</f>
         <v>0</v>
       </c>
       <c r="E69" s="6">
-        <f t="shared" si="108"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="F69" s="6">
-        <f t="shared" si="108"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="G69" s="6">
-        <f t="shared" si="108"/>
+        <f t="shared" si="111"/>
         <v>2707</v>
       </c>
       <c r="H69" s="6">
-        <f t="shared" si="108"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="I69" s="6">
-        <f t="shared" si="108"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="J69" s="6">
-        <f t="shared" si="108"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="K69" s="6"/>
@@ -5588,31 +5686,31 @@
       <c r="N69" s="6"/>
       <c r="O69" s="6"/>
       <c r="P69" s="6">
-        <f t="shared" ref="P69" si="109">SUM(P65:P68)</f>
+        <f t="shared" ref="P69" si="112">SUM(P65:P68)</f>
         <v>0</v>
       </c>
       <c r="Q69" s="6">
-        <f t="shared" ref="Q69" si="110">SUM(Q65:Q68)</f>
+        <f t="shared" ref="Q69" si="113">SUM(Q65:Q68)</f>
         <v>0</v>
       </c>
       <c r="R69" s="6">
-        <f t="shared" ref="R69" si="111">SUM(R65:R68)</f>
+        <f t="shared" ref="R69" si="114">SUM(R65:R68)</f>
         <v>0</v>
       </c>
       <c r="S69" s="6">
-        <f t="shared" ref="S69" si="112">SUM(S65:S68)</f>
+        <f t="shared" ref="S69" si="115">SUM(S65:S68)</f>
         <v>0</v>
       </c>
       <c r="T69" s="6">
-        <f t="shared" ref="T69" si="113">SUM(T65:T68)</f>
+        <f t="shared" ref="T69" si="116">SUM(T65:T68)</f>
         <v>2233</v>
       </c>
       <c r="U69" s="6">
-        <f t="shared" ref="U69" si="114">SUM(U65:U68)</f>
+        <f t="shared" ref="U69" si="117">SUM(U65:U68)</f>
         <v>2595</v>
       </c>
       <c r="V69" s="6">
-        <f t="shared" ref="V69" si="115">SUM(V65:V68)</f>
+        <f t="shared" ref="V69" si="118">SUM(V65:V68)</f>
         <v>3264</v>
       </c>
       <c r="W69" s="27"/>
@@ -5632,35 +5730,35 @@
         <v>61</v>
       </c>
       <c r="C70" s="24">
-        <f t="shared" ref="C70:J70" si="116">C69+C64</f>
+        <f t="shared" ref="C70:J70" si="119">C69+C64</f>
         <v>10932</v>
       </c>
       <c r="D70" s="24">
-        <f t="shared" si="116"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="E70" s="24">
-        <f t="shared" si="116"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="F70" s="24">
-        <f t="shared" si="116"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="G70" s="24">
-        <f t="shared" si="116"/>
+        <f t="shared" si="119"/>
         <v>10908</v>
       </c>
       <c r="H70" s="24">
-        <f t="shared" si="116"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="I70" s="24">
-        <f t="shared" si="116"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="J70" s="24">
-        <f t="shared" si="116"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="K70" s="24"/>
@@ -5669,31 +5767,31 @@
       <c r="N70" s="6"/>
       <c r="O70" s="6"/>
       <c r="P70" s="24">
-        <f t="shared" ref="P70:V70" si="117">P69+P64</f>
+        <f t="shared" ref="P70:V70" si="120">P69+P64</f>
         <v>0</v>
       </c>
       <c r="Q70" s="24">
-        <f t="shared" si="117"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="R70" s="24">
-        <f t="shared" si="117"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="S70" s="24">
-        <f t="shared" si="117"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="T70" s="24">
-        <f t="shared" si="117"/>
+        <f t="shared" si="120"/>
         <v>11386</v>
       </c>
       <c r="U70" s="24">
-        <f t="shared" si="117"/>
+        <f t="shared" si="120"/>
         <v>11044</v>
       </c>
       <c r="V70" s="24">
-        <f t="shared" si="117"/>
+        <f t="shared" si="120"/>
         <v>11885</v>
       </c>
       <c r="W70" s="27"/>
@@ -5746,35 +5844,35 @@
         <v>30</v>
       </c>
       <c r="C72" s="6">
-        <f t="shared" ref="C72:J72" si="118">C24</f>
+        <f t="shared" ref="C72:J72" si="121">C24</f>
         <v>-18</v>
       </c>
       <c r="D72" s="6">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>117</v>
       </c>
       <c r="E72" s="6">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>218</v>
       </c>
       <c r="F72" s="6">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>185</v>
       </c>
       <c r="G72" s="6">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>158</v>
       </c>
       <c r="H72" s="6">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>206</v>
       </c>
       <c r="I72" s="6">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>274</v>
       </c>
       <c r="J72" s="6">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>206</v>
       </c>
       <c r="K72" s="6"/>
@@ -5783,31 +5881,31 @@
       <c r="N72" s="6"/>
       <c r="O72" s="6"/>
       <c r="P72" s="6">
-        <f t="shared" ref="P72:V72" si="119">P24</f>
+        <f t="shared" ref="P72:V72" si="122">P24</f>
         <v>1003</v>
       </c>
       <c r="Q72" s="6">
-        <f t="shared" si="119"/>
+        <f t="shared" si="122"/>
         <v>351</v>
       </c>
       <c r="R72" s="6">
-        <f t="shared" si="119"/>
+        <f t="shared" si="122"/>
         <v>-665</v>
       </c>
       <c r="S72" s="6">
-        <f t="shared" si="119"/>
+        <f t="shared" si="122"/>
         <v>256</v>
       </c>
       <c r="T72" s="6">
-        <f t="shared" si="119"/>
+        <f t="shared" si="122"/>
         <v>-202</v>
       </c>
       <c r="U72" s="6">
-        <f t="shared" si="119"/>
+        <f t="shared" si="122"/>
         <v>502</v>
       </c>
       <c r="V72" s="6">
-        <f t="shared" si="119"/>
+        <f t="shared" si="122"/>
         <v>844</v>
       </c>
       <c r="W72" s="27"/>
@@ -6347,31 +6445,31 @@
         <v>-113</v>
       </c>
       <c r="D86" s="6">
-        <f t="shared" ref="D86:J86" si="120">SUM(D79:D85)</f>
+        <f t="shared" ref="D86:J86" si="123">SUM(D79:D85)</f>
         <v>0</v>
       </c>
       <c r="E86" s="6">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="F86" s="6">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="G86" s="6">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v>-278</v>
       </c>
       <c r="H86" s="6">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="I86" s="6">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="J86" s="6">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="K86" s="6"/>
@@ -6403,35 +6501,35 @@
         <v>74</v>
       </c>
       <c r="C87" s="24">
-        <f t="shared" ref="C87:J87" si="121">SUM(C72:C77)+C86</f>
+        <f t="shared" ref="C87:J87" si="124">SUM(C72:C77)+C86</f>
         <v>15</v>
       </c>
       <c r="D87" s="24">
-        <f t="shared" si="121"/>
+        <f t="shared" si="124"/>
         <v>117</v>
       </c>
       <c r="E87" s="24">
-        <f t="shared" si="121"/>
+        <f t="shared" si="124"/>
         <v>218</v>
       </c>
       <c r="F87" s="24">
-        <f t="shared" si="121"/>
+        <f t="shared" si="124"/>
         <v>185</v>
       </c>
       <c r="G87" s="24">
-        <f t="shared" si="121"/>
+        <f t="shared" si="124"/>
         <v>30</v>
       </c>
       <c r="H87" s="24">
-        <f t="shared" si="121"/>
+        <f t="shared" si="124"/>
         <v>206</v>
       </c>
       <c r="I87" s="24">
-        <f t="shared" si="121"/>
+        <f t="shared" si="124"/>
         <v>274</v>
       </c>
       <c r="J87" s="24">
-        <f t="shared" si="121"/>
+        <f t="shared" si="124"/>
         <v>206</v>
       </c>
       <c r="K87" s="24"/>
@@ -6667,31 +6765,31 @@
         <v>-30</v>
       </c>
       <c r="D93" s="24">
-        <f t="shared" ref="D93:J93" si="122">SUM(D88:D92)</f>
+        <f t="shared" ref="D93:J93" si="125">SUM(D88:D92)</f>
         <v>0</v>
       </c>
       <c r="E93" s="24">
-        <f t="shared" si="122"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="F93" s="24">
-        <f t="shared" si="122"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="G93" s="24">
-        <f t="shared" si="122"/>
+        <f t="shared" si="125"/>
         <v>-291</v>
       </c>
       <c r="H93" s="24">
-        <f t="shared" si="122"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="I93" s="24">
-        <f t="shared" si="122"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="J93" s="24">
-        <f t="shared" si="122"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="K93" s="24"/>
@@ -6847,31 +6945,31 @@
         <v>-58</v>
       </c>
       <c r="D97" s="24">
-        <f t="shared" ref="D97:J97" si="123">SUM(D94:D96)</f>
+        <f t="shared" ref="D97:J97" si="126">SUM(D94:D96)</f>
         <v>0</v>
       </c>
       <c r="E97" s="24">
-        <f t="shared" si="123"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="F97" s="24">
-        <f t="shared" si="123"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="G97" s="24">
-        <f t="shared" si="123"/>
+        <f t="shared" si="126"/>
         <v>-77</v>
       </c>
       <c r="H97" s="24">
-        <f t="shared" si="123"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="I97" s="24">
-        <f t="shared" si="123"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="J97" s="24">
-        <f t="shared" si="123"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="K97" s="24"/>
@@ -6943,19 +7041,19 @@
         <v>86</v>
       </c>
       <c r="C99" s="24">
-        <f t="shared" ref="C99:F99" si="124">C97+C93+C87+C98</f>
+        <f t="shared" ref="C99:F99" si="127">C97+C93+C87+C98</f>
         <v>-75</v>
       </c>
       <c r="D99" s="24">
-        <f t="shared" si="124"/>
+        <f t="shared" si="127"/>
         <v>117</v>
       </c>
       <c r="E99" s="24">
-        <f t="shared" si="124"/>
+        <f t="shared" si="127"/>
         <v>218</v>
       </c>
       <c r="F99" s="24">
-        <f t="shared" si="124"/>
+        <f t="shared" si="127"/>
         <v>185</v>
       </c>
       <c r="G99" s="24">
@@ -6963,15 +7061,15 @@
         <v>-340</v>
       </c>
       <c r="H99" s="24">
-        <f t="shared" ref="H99:J99" si="125">H97+H93+H87+H98</f>
+        <f t="shared" ref="H99:J99" si="128">H97+H93+H87+H98</f>
         <v>206</v>
       </c>
       <c r="I99" s="24">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>274</v>
       </c>
       <c r="J99" s="24">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>206</v>
       </c>
       <c r="K99" s="24"/>
